--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -16,13 +16,14 @@
     <sheet name="20170810" sheetId="32" r:id="rId7"/>
     <sheet name="20170824" sheetId="33" r:id="rId8"/>
     <sheet name="20170910" sheetId="35" r:id="rId9"/>
+    <sheet name="20170925" sheetId="36" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="204">
   <si>
     <t>额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,15 +742,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>in</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>825春花</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>in</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -846,6 +839,14 @@
   </si>
   <si>
     <t>10W</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24丽芬1.8W</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>924利息..</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1813,8 +1814,8 @@
   <dimension ref="A1:AZ61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="F17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2042,13 +2043,13 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
@@ -2166,7 +2167,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2527,7 +2528,7 @@
     </row>
     <row r="12" spans="1:52" s="10" customFormat="1">
       <c r="A12" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" s="12">
         <f>SUM(B3,B5,B7,B9,B11)</f>
@@ -2856,24 +2857,12 @@
         <f>SUM(F17:BE17)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="34">
-        <v>8500</v>
-      </c>
-      <c r="G17" s="34">
-        <v>6680</v>
-      </c>
-      <c r="H17" s="34">
-        <v>5367.5</v>
-      </c>
-      <c r="I17" s="34">
-        <v>202.75</v>
-      </c>
-      <c r="J17" s="34">
-        <v>3</v>
-      </c>
-      <c r="K17" s="34">
-        <v>-20753.25</v>
-      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
@@ -2926,20 +2915,12 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>193</v>
-      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
-      <c r="K18" s="34" t="s">
-        <v>202</v>
-      </c>
+      <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
@@ -2992,63 +2973,29 @@
       <c r="C19" s="3"/>
       <c r="D19" s="9">
         <f>B19-C19-E19</f>
-        <v>21043.3</v>
+        <v>21000</v>
       </c>
       <c r="E19" s="9">
         <f>SUM(F19:BE19)</f>
-        <v>-43.299999999999272</v>
-      </c>
-      <c r="F19" s="34">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="34">
-        <v>402.5</v>
-      </c>
-      <c r="H19" s="34">
-        <v>723.5</v>
-      </c>
-      <c r="I19" s="34">
-        <v>410.5</v>
-      </c>
-      <c r="J19" s="34">
-        <v>205</v>
-      </c>
-      <c r="K19" s="34">
-        <v>206</v>
-      </c>
-      <c r="L19" s="34">
-        <v>303.5</v>
-      </c>
-      <c r="M19" s="34">
-        <v>3560</v>
-      </c>
-      <c r="N19" s="15">
-        <v>400</v>
-      </c>
-      <c r="O19" s="4">
-        <v>206.5</v>
-      </c>
-      <c r="P19" s="4">
-        <v>200.5</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>408</v>
-      </c>
-      <c r="R19" s="4">
-        <v>210</v>
-      </c>
-      <c r="S19" s="4">
-        <v>203.2</v>
-      </c>
-      <c r="T19" s="4">
-        <v>211.5</v>
-      </c>
-      <c r="U19" s="4">
-        <v>401</v>
-      </c>
-      <c r="V19" s="4">
-        <v>-9095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -3095,54 +3042,22 @@
       <c r="F20" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="J20" s="34">
-        <v>2</v>
-      </c>
-      <c r="K20" s="34">
-        <v>3</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="P20" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="34">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="S20" s="4">
-        <v>3</v>
-      </c>
-      <c r="T20" s="4">
-        <v>78.914000000000001</v>
-      </c>
-      <c r="U20" s="4">
-        <v>1</v>
-      </c>
-      <c r="V20" s="4">
-        <v>2</v>
-      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -3190,15 +3105,9 @@
         <f>SUM(F21:BE21)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="35">
-        <v>5000</v>
-      </c>
-      <c r="G21" s="34">
-        <v>3690</v>
-      </c>
-      <c r="H21" s="35">
-        <v>-8690</v>
-      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
@@ -3252,12 +3161,8 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>192</v>
-      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="78"/>
       <c r="J22" s="34"/>
@@ -3309,32 +3214,22 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9">
         <f>B23-C23-E23</f>
-        <v>19122.3</v>
+        <v>36000</v>
       </c>
       <c r="E23" s="9">
         <f>SUM(F23:BE23)</f>
-        <v>10877.7</v>
-      </c>
-      <c r="F23" s="34">
-        <v>1000</v>
-      </c>
-      <c r="G23" s="34">
-        <v>1010</v>
-      </c>
-      <c r="H23" s="34">
-        <v>5635.7</v>
-      </c>
-      <c r="I23" s="34">
-        <v>2336</v>
-      </c>
-      <c r="J23" s="34">
-        <v>896</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
@@ -3391,18 +3286,10 @@
       <c r="F24" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>193</v>
-      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="4"/>
       <c r="M24" s="34"/>
@@ -3454,27 +3341,21 @@
         <f>SUM(A31,-B11)</f>
         <v>20000</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>50</v>
+      </c>
       <c r="D25" s="9">
         <f>B25-C25-E25</f>
-        <v>20000</v>
+        <v>19950</v>
       </c>
       <c r="E25" s="9">
         <f>SUM(F25:BE25)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="34">
-        <v>123</v>
-      </c>
-      <c r="G25" s="34">
-        <v>3500</v>
-      </c>
-      <c r="H25" s="34">
-        <v>100</v>
-      </c>
-      <c r="I25" s="34">
-        <v>-3723</v>
-      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
@@ -3531,15 +3412,9 @@
       <c r="E26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>194</v>
-      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
@@ -3595,27 +3470,17 @@
       <c r="C27" s="3"/>
       <c r="D27" s="9">
         <f>B27-C27-E27</f>
-        <v>6079.15</v>
+        <v>12000</v>
       </c>
       <c r="E27" s="9">
         <f>SUM(F27:BE27)</f>
-        <v>5920.85</v>
-      </c>
-      <c r="F27" s="34">
-        <v>1000</v>
-      </c>
-      <c r="G27" s="15">
-        <v>4585</v>
-      </c>
-      <c r="H27" s="15">
-        <v>290</v>
-      </c>
-      <c r="I27" s="34">
-        <v>-50</v>
-      </c>
-      <c r="J27" s="34">
-        <v>95.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
@@ -3661,29 +3526,23 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="109" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="21">
         <v>9.15</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="G28" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>199</v>
-      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="34"/>
-      <c r="J28" s="34">
-        <v>9.6999999999999993</v>
-      </c>
+      <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -3733,26 +3592,24 @@
       </c>
       <c r="B29" s="13">
         <f>SUM(B15,B17,B19,B21,B23,B25,B27)</f>
-        <v>204000</v>
+        <v>210000</v>
       </c>
       <c r="C29" s="19">
         <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D29" s="11">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>187244.74999999997</v>
+        <v>209950</v>
       </c>
       <c r="E29" s="11">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>16755.25</v>
+        <v>0</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="45">
-        <v>4875</v>
-      </c>
+      <c r="I29" s="45"/>
       <c r="J29" s="45"/>
       <c r="K29" s="45"/>
       <c r="L29" s="45"/>
@@ -3840,7 +3697,7 @@
       </c>
       <c r="K31" s="96">
         <f>SUM(B12,B29)</f>
-        <v>354500</v>
+        <v>360500</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="71" t="s">
@@ -3862,7 +3719,7 @@
       </c>
       <c r="K32" s="95">
         <f>SUM(K31,-K33)</f>
-        <v>69759.23000000004</v>
+        <v>53053.979999999981</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="97" t="s">
@@ -3870,7 +3727,7 @@
       </c>
       <c r="N32" s="98">
         <f>SUM(N31,-K32)</f>
-        <v>85540.76999999996</v>
+        <v>102246.02000000002</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -3897,7 +3754,7 @@
       </c>
       <c r="K33" s="96">
         <f>SUM(D12,D29)</f>
-        <v>284740.76999999996</v>
+        <v>307446.02</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -4040,7 +3897,9 @@
       <c r="F40" s="102">
         <v>20180624</v>
       </c>
-      <c r="G40" s="90"/>
+      <c r="G40" s="90" t="s">
+        <v>203</v>
+      </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:14">
@@ -4053,7 +3912,7 @@
       </c>
       <c r="D41" s="60"/>
       <c r="N41" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4299,10 +4158,2527 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="90"/>
+      <c r="D60" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="110"/>
+      <c r="B61" s="111">
+        <v>42990</v>
+      </c>
+      <c r="C61" s="90"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ61"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="24" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52">
+      <c r="A1" s="14"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+    </row>
+    <row r="2" spans="1:52">
+      <c r="A2" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+    </row>
+    <row r="3" spans="1:52" s="2" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>19390.03</v>
+      </c>
+      <c r="D3" s="9">
+        <f>B3-C3-E3</f>
+        <v>67696.87</v>
+      </c>
+      <c r="E3" s="8">
+        <f>SUM(F3:BE3)</f>
+        <v>913.1</v>
+      </c>
+      <c r="F3" s="47">
+        <v>300</v>
+      </c>
+      <c r="G3" s="39">
+        <v>311.5</v>
+      </c>
+      <c r="H3" s="39">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4" s="15">
+        <v>29</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+    </row>
+    <row r="5" spans="1:52" s="2" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>22618.65</v>
+      </c>
+      <c r="D5" s="9">
+        <f>B5-C5-E5</f>
+        <v>22381.35</v>
+      </c>
+      <c r="E5" s="8">
+        <f>SUM(F5:BE5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" s="15">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4">
+        <v>500</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="9">
+        <f>B7-C7-E7</f>
+        <v>500</v>
+      </c>
+      <c r="E7" s="8">
+        <f>SUM(F7:BE7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>17000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10082.200000000001</v>
+      </c>
+      <c r="D9" s="9">
+        <f>B9-C9-E9</f>
+        <v>6917.7999999999993</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SUM(F9:BE9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+    </row>
+    <row r="10" spans="1:52" s="80" customFormat="1">
+      <c r="A10" s="15">
+        <v>30</v>
+      </c>
+      <c r="B10" s="101"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+    </row>
+    <row r="11" spans="1:52" s="88" customFormat="1">
+      <c r="A11" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="84">
+        <v>0</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84">
+        <f>B11-C11-E11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="85">
+        <f>SUM(F11:BE11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23"/>
+    </row>
+    <row r="12" spans="1:52" s="10" customFormat="1">
+      <c r="A12" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="12">
+        <f>SUM(B3,B5,B7,B9,B11)</f>
+        <v>150500</v>
+      </c>
+      <c r="C12" s="82">
+        <f>SUM(C3,C5,C7,C9,C11)</f>
+        <v>52090.880000000005</v>
+      </c>
+      <c r="D12" s="7">
+        <f>SUM(D3,D5,D7,D9,D11)</f>
+        <v>97496.02</v>
+      </c>
+      <c r="E12" s="7">
+        <f>SUM(E3,E5,E7,E9,E11)</f>
+        <v>913.1</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+    </row>
+    <row r="13" spans="1:52" s="69" customFormat="1">
+      <c r="A13" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="64">
+        <v>30000</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65">
+        <f>B13-C13-E13</f>
+        <v>30000</v>
+      </c>
+      <c r="E13" s="65">
+        <f>SUM(F13:BE13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+    </row>
+    <row r="14" spans="1:52" s="69" customFormat="1">
+      <c r="A14" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="64">
+        <v>14</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="68"/>
+      <c r="AU14" s="68"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+    </row>
+    <row r="15" spans="1:52" s="2" customFormat="1">
+      <c r="A15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8">
+        <f>B15-C15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="105"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="55"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="55"/>
+      <c r="AP15" s="55"/>
+      <c r="AQ15" s="55"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="55"/>
+      <c r="AW15" s="55"/>
+      <c r="AX15" s="55"/>
+      <c r="AY15" s="55"/>
+      <c r="AZ15" s="55"/>
+    </row>
+    <row r="16" spans="1:52" s="2" customFormat="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="55"/>
+      <c r="AL16" s="55"/>
+      <c r="AM16" s="55"/>
+      <c r="AN16" s="55"/>
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="55"/>
+      <c r="AR16" s="55"/>
+      <c r="AS16" s="55"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="55"/>
+      <c r="AV16" s="55"/>
+      <c r="AW16" s="55"/>
+      <c r="AX16" s="55"/>
+      <c r="AY16" s="55"/>
+      <c r="AZ16" s="55"/>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>108000</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="59">
+        <f>B17-C17-E17</f>
+        <v>108000</v>
+      </c>
+      <c r="E17" s="9">
+        <f>SUM(F17:BE17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="34">
+        <v>8500</v>
+      </c>
+      <c r="G17" s="34">
+        <v>6680</v>
+      </c>
+      <c r="H17" s="34">
+        <v>5367.5</v>
+      </c>
+      <c r="I17" s="34">
+        <v>202.75</v>
+      </c>
+      <c r="J17" s="34">
+        <v>3</v>
+      </c>
+      <c r="K17" s="34">
+        <v>-20753.25</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="32">
+        <v>9.17</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34" t="s">
         <v>200</v>
       </c>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="A19" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
+        <v>21000</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9">
+        <f>B19-C19-E19</f>
+        <v>21043.3</v>
+      </c>
+      <c r="E19" s="9">
+        <f>SUM(F19:BE19)</f>
+        <v>-43.299999999999272</v>
+      </c>
+      <c r="F19" s="34">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="34">
+        <v>402.5</v>
+      </c>
+      <c r="H19" s="34">
+        <v>723.5</v>
+      </c>
+      <c r="I19" s="34">
+        <v>410.5</v>
+      </c>
+      <c r="J19" s="34">
+        <v>205</v>
+      </c>
+      <c r="K19" s="34">
+        <v>206</v>
+      </c>
+      <c r="L19" s="34">
+        <v>303.5</v>
+      </c>
+      <c r="M19" s="34">
+        <v>3560</v>
+      </c>
+      <c r="N19" s="15">
+        <v>400</v>
+      </c>
+      <c r="O19" s="4">
+        <v>206.5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>200.5</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>408</v>
+      </c>
+      <c r="R19" s="4">
+        <v>210</v>
+      </c>
+      <c r="S19" s="4">
+        <v>203.2</v>
+      </c>
+      <c r="T19" s="4">
+        <v>211.5</v>
+      </c>
+      <c r="U19" s="4">
+        <v>401</v>
+      </c>
+      <c r="V19" s="4">
+        <v>-9095</v>
+      </c>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="A20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="15">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" s="34">
+        <v>2</v>
+      </c>
+      <c r="K20" s="34">
+        <v>3</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="34">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="S20" s="4">
+        <v>3</v>
+      </c>
+      <c r="T20" s="4">
+        <v>78.914000000000001</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4">
+        <v>2</v>
+      </c>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <v>13000</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="9">
+        <f>B21-C21-E21</f>
+        <v>13000</v>
+      </c>
+      <c r="E21" s="8">
+        <f>SUM(F21:BE21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="34">
+        <v>3690</v>
+      </c>
+      <c r="H21" s="35">
+        <v>-8690</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="A22" s="6"/>
+      <c r="B22" s="32">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4">
+        <v>36000</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9">
+        <f>B23-C23-E23</f>
+        <v>25142.3</v>
+      </c>
+      <c r="E23" s="9">
+        <f>SUM(F23:BE23)</f>
+        <v>10857.7</v>
+      </c>
+      <c r="F23" s="34">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="34">
+        <v>1010</v>
+      </c>
+      <c r="H23" s="34">
+        <v>5635.7</v>
+      </c>
+      <c r="I23" s="34">
+        <v>2336</v>
+      </c>
+      <c r="J23" s="34">
+        <v>896</v>
+      </c>
+      <c r="K23" s="34">
+        <v>-20</v>
+      </c>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" s="6"/>
+      <c r="B24" s="15">
+        <v>9.14</v>
+      </c>
+      <c r="C24" s="89"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" s="34"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="A25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="21">
+        <f>SUM(A31,-B11)</f>
+        <v>20000</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="9">
+        <f>B25-C25-E25</f>
+        <v>20000</v>
+      </c>
+      <c r="E25" s="9">
+        <f>SUM(F25:BE25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="34">
+        <v>123</v>
+      </c>
+      <c r="G25" s="34">
+        <v>3500</v>
+      </c>
+      <c r="H25" s="34">
+        <v>100</v>
+      </c>
+      <c r="I25" s="34">
+        <v>-3723</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="15">
+        <v>9.14</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
+    </row>
+    <row r="27" spans="1:52">
+      <c r="A27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4">
+        <v>12000</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="9">
+        <f>B27-C27-E27</f>
+        <v>6079.15</v>
+      </c>
+      <c r="E27" s="9">
+        <f>SUM(F27:BE27)</f>
+        <v>5920.85</v>
+      </c>
+      <c r="F27" s="34">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="15">
+        <v>4585</v>
+      </c>
+      <c r="H27" s="15">
+        <v>290</v>
+      </c>
+      <c r="I27" s="34">
+        <v>-50</v>
+      </c>
+      <c r="J27" s="34">
+        <v>95.85</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="14"/>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="A28" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="21">
+        <v>9.15</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+    </row>
+    <row r="29" spans="1:52" s="10" customFormat="1">
+      <c r="A29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="13">
+        <f>SUM(B15,B17,B19,B21,B23,B25,B27)</f>
+        <v>210000</v>
+      </c>
+      <c r="C29" s="19">
+        <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
+        <v>193264.74999999997</v>
+      </c>
+      <c r="E29" s="11">
+        <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
+        <v>16735.25</v>
+      </c>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45">
+        <v>4875</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="11"/>
+    </row>
+    <row r="30" spans="1:52" s="2" customFormat="1">
+      <c r="A30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" s="91">
+        <v>20000</v>
+      </c>
+      <c r="B31" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="53">
+        <v>1045.8499999999999</v>
+      </c>
+      <c r="G31" s="62">
+        <v>4875</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="96">
+        <f>SUM(B12,B29)</f>
+        <v>360500</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" s="96">
+        <f>SUM(A39,A48,A58)</f>
+        <v>155300</v>
+      </c>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="F32" s="2"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="95">
+        <f>SUM(K31,-K33)</f>
+        <v>69739.23000000004</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="N32" s="98">
+        <f>SUM(N31,-K32)</f>
+        <v>85560.76999999996</v>
+      </c>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="96">
+        <f>SUM(D12,D29)</f>
+        <v>290760.76999999996</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="23">
+        <f>SUM(B34:C34)</f>
+        <v>18000</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0</v>
+      </c>
+      <c r="C34" s="27">
+        <f>SUM(D34:R34)</f>
+        <v>18000</v>
+      </c>
+      <c r="D34" s="30">
+        <v>18000</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="108">
+        <v>43032</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="60"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="23">
+        <f>SUM(B36:C36)</f>
+        <v>78000</v>
+      </c>
+      <c r="B36" s="25">
+        <v>0</v>
+      </c>
+      <c r="C36" s="51">
+        <f>SUM(D36:R36)</f>
+        <v>78000</v>
+      </c>
+      <c r="D36" s="31">
+        <v>30000</v>
+      </c>
+      <c r="E36" s="31">
+        <v>20000</v>
+      </c>
+      <c r="F36" s="30">
+        <v>10000</v>
+      </c>
+      <c r="G36" s="30">
+        <v>18000</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="106">
+        <v>43110</v>
+      </c>
+      <c r="E37" s="106">
+        <v>43297</v>
+      </c>
+      <c r="F37" s="106">
+        <v>43116</v>
+      </c>
+      <c r="G37" s="108">
+        <v>43029</v>
+      </c>
+      <c r="H37" s="108"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="23">
+        <f>SUM(B38:C38)</f>
+        <v>10000</v>
+      </c>
+      <c r="B38" s="25">
+        <v>0</v>
+      </c>
+      <c r="C38" s="27">
+        <f>SUM(D38:R38)</f>
+        <v>10000</v>
+      </c>
+      <c r="D38" s="30">
+        <v>10000</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="21">
+        <f>SUM(A34,A36,A38)</f>
+        <v>106000</v>
+      </c>
+      <c r="B39" s="25">
+        <f>SUM(B34,B36,B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="25">
+        <f>SUM(C34,C36,C38)</f>
+        <v>106000</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="102">
+        <v>20180612</v>
+      </c>
+      <c r="F40" s="102">
+        <v>20180624</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="25">
+        <v>50080</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="N41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="23">
+        <f>SUM(B43:C43)</f>
+        <v>49300</v>
+      </c>
+      <c r="B43" s="25">
+        <v>49300</v>
+      </c>
+      <c r="C43" s="27">
+        <f>SUM(D43:U43)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="23"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="23">
+        <f>SUM(B45:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="27">
+        <f>SUM(D45:U45)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="23">
+        <f>SUM(B47:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="B47" s="25">
+        <v>0</v>
+      </c>
+      <c r="C47" s="27">
+        <f>SUM(D47:U47)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="24">
+        <f>SUM(A43,A45,A47)</f>
+        <v>49300</v>
+      </c>
+      <c r="B48" s="25">
+        <f>SUM(B43,B45,B47)</f>
+        <v>49300</v>
+      </c>
+      <c r="C48" s="25">
+        <f>SUM(C43,C45,C47)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="71"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="23">
+        <f>SUM(B53:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="B53" s="25">
+        <v>0</v>
+      </c>
+      <c r="C53" s="27">
+        <f>SUM(D53:U53)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="23"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="23">
+        <f>SUM(B55:C55)</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="25">
+        <v>0</v>
+      </c>
+      <c r="C55" s="27">
+        <f>SUM(D55:U55)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="23"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="60"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="23">
+        <f>SUM(B57:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="B57" s="25">
+        <v>0</v>
+      </c>
+      <c r="C57" s="27">
+        <f>SUM(D57:U57)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="24">
+        <f>SUM(A53,A55,A57)</f>
+        <v>0</v>
+      </c>
+      <c r="B58" s="25">
+        <f>SUM(B53,B55,B57)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="25">
+        <f>SUM(C53,C55,C57)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="110" t="s">
+        <v>198</v>
+      </c>
       <c r="B60" s="102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C60" s="90"/>
     </row>
@@ -19943,7 +22319,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -19961,7 +22337,7 @@
         <v>176</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
@@ -20338,7 +22714,7 @@
     </row>
     <row r="12" spans="1:52" s="10" customFormat="1">
       <c r="A12" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" s="12">
         <f>SUM(B3,B5,B7,B9,B11)</f>
@@ -20736,13 +23112,13 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
@@ -20896,7 +23272,7 @@
         <v>148</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>148</v>
@@ -20908,16 +23284,16 @@
         <v>3</v>
       </c>
       <c r="L20" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="M20" s="34" t="s">
-        <v>187</v>
-      </c>
       <c r="N20" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P20" s="4">
         <v>3</v>
@@ -21038,10 +23414,10 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="78"/>
@@ -21179,16 +23555,16 @@
         <v>149</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="4"/>
@@ -21319,13 +23695,13 @@
         <v>40</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -21444,21 +23820,21 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="109" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="21">
         <v>9.15</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="205">
   <si>
     <t>额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,6 +847,10 @@
   </si>
   <si>
     <t>924利息..</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1814,8 +1818,8 @@
   <dimension ref="A1:AZ61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="F17:K18"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1969,12 +1973,10 @@
       <c r="B3" s="4">
         <v>88000</v>
       </c>
-      <c r="C3" s="3">
-        <v>19390.03</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="9">
         <f>B3-C3-E3</f>
-        <v>67696.87</v>
+        <v>87086.9</v>
       </c>
       <c r="E3" s="8">
         <f>SUM(F3:BE3)</f>
@@ -2103,18 +2105,18 @@
       <c r="B5" s="4">
         <v>45000</v>
       </c>
-      <c r="C5" s="3">
-        <v>22618.65</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="9">
         <f>B5-C5-E5</f>
-        <v>22381.35</v>
+        <v>43155</v>
       </c>
       <c r="E5" s="8">
         <f>SUM(F5:BE5)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="33"/>
+        <v>1845</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1845</v>
+      </c>
       <c r="G5" s="37"/>
       <c r="H5" s="33"/>
       <c r="I5" s="37"/>
@@ -2172,7 +2174,9 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>204</v>
+      </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -2536,15 +2540,15 @@
       </c>
       <c r="C12" s="82">
         <f>SUM(C3,C5,C7,C9,C11)</f>
-        <v>52090.880000000005</v>
+        <v>10082.200000000001</v>
       </c>
       <c r="D12" s="7">
         <f>SUM(D3,D5,D7,D9,D11)</f>
-        <v>97496.02</v>
+        <v>137659.69999999998</v>
       </c>
       <c r="E12" s="7">
         <f>SUM(E3,E5,E7,E9,E11)</f>
-        <v>913.1</v>
+        <v>2758.1</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3705,7 +3709,7 @@
       </c>
       <c r="N31" s="96">
         <f>SUM(A39,A48,A58)</f>
-        <v>155300</v>
+        <v>116750</v>
       </c>
       <c r="O31" s="2"/>
     </row>
@@ -3719,7 +3723,7 @@
       </c>
       <c r="K32" s="95">
         <f>SUM(K31,-K33)</f>
-        <v>53053.979999999981</v>
+        <v>12890.300000000047</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="97" t="s">
@@ -3727,7 +3731,7 @@
       </c>
       <c r="N32" s="98">
         <f>SUM(N31,-K32)</f>
-        <v>102246.02000000002</v>
+        <v>103859.69999999995</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -3754,7 +3758,7 @@
       </c>
       <c r="K33" s="96">
         <f>SUM(D12,D29)</f>
-        <v>307446.02</v>
+        <v>347609.69999999995</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -3937,10 +3941,10 @@
     <row r="43" spans="1:14">
       <c r="A43" s="23">
         <f>SUM(B43:C43)</f>
-        <v>49300</v>
+        <v>10750</v>
       </c>
       <c r="B43" s="25">
-        <v>49300</v>
+        <v>10750</v>
       </c>
       <c r="C43" s="27">
         <f>SUM(D43:U43)</f>
@@ -4014,11 +4018,11 @@
     <row r="48" spans="1:14">
       <c r="A48" s="24">
         <f>SUM(A43,A45,A47)</f>
-        <v>49300</v>
+        <v>10750</v>
       </c>
       <c r="B48" s="25">
         <f>SUM(B43,B45,B47)</f>
-        <v>49300</v>
+        <v>10750</v>
       </c>
       <c r="C48" s="25">
         <f>SUM(C43,C45,C47)</f>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="207">
   <si>
     <t>额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -851,6 +851,14 @@
   </si>
   <si>
     <t>淘宝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶粉白金卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无399了</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1818,8 +1826,8 @@
   <dimension ref="A1:AZ61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2351,12 +2359,10 @@
       <c r="B9" s="4">
         <v>17000</v>
       </c>
-      <c r="C9" s="4">
-        <v>10082.200000000001</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="9">
         <f>B9-C9-E9</f>
-        <v>6917.7999999999993</v>
+        <v>17000</v>
       </c>
       <c r="E9" s="8">
         <f>SUM(F9:BE9)</f>
@@ -2540,11 +2546,11 @@
       </c>
       <c r="C12" s="82">
         <f>SUM(C3,C5,C7,C9,C11)</f>
-        <v>10082.200000000001</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
         <f>SUM(D3,D5,D7,D9,D11)</f>
-        <v>137659.69999999998</v>
+        <v>147741.9</v>
       </c>
       <c r="E12" s="7">
         <f>SUM(E3,E5,E7,E9,E11)</f>
@@ -2979,14 +2985,19 @@
         <f>B19-C19-E19</f>
         <v>21000</v>
       </c>
-      <c r="E19" s="9">
-        <f>SUM(F19:BE19)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="34">
+        <v>201</v>
+      </c>
+      <c r="G19" s="34">
+        <v>210</v>
+      </c>
+      <c r="H19" s="34">
+        <v>203</v>
+      </c>
+      <c r="I19" s="34">
+        <v>402.3</v>
+      </c>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
@@ -3047,9 +3058,13 @@
         <v>142</v>
       </c>
       <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="H20" s="34">
+        <v>10.199999999999999</v>
+      </c>
       <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="J20" s="34" t="s">
+        <v>206</v>
+      </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
@@ -3223,13 +3238,15 @@
       <c r="C23" s="3"/>
       <c r="D23" s="9">
         <f>B23-C23-E23</f>
-        <v>36000</v>
+        <v>35840</v>
       </c>
       <c r="E23" s="9">
         <f>SUM(F23:BE23)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="34"/>
+        <v>160</v>
+      </c>
+      <c r="F23" s="34">
+        <v>160</v>
+      </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -3350,14 +3367,18 @@
       </c>
       <c r="D25" s="9">
         <f>B25-C25-E25</f>
-        <v>19950</v>
+        <v>19720</v>
       </c>
       <c r="E25" s="9">
         <f>SUM(F25:BE25)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+        <v>230</v>
+      </c>
+      <c r="F25" s="34">
+        <v>50</v>
+      </c>
+      <c r="G25" s="34">
+        <v>180</v>
+      </c>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
@@ -3540,8 +3561,8 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="34" t="s">
-        <v>188</v>
+      <c r="F28" s="34">
+        <v>224</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="15"/>
@@ -3604,13 +3625,15 @@
       </c>
       <c r="D29" s="11">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>209950</v>
+        <v>209560</v>
       </c>
       <c r="E29" s="11">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="45"/>
+        <v>390</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>205</v>
+      </c>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
@@ -3723,7 +3746,7 @@
       </c>
       <c r="K32" s="95">
         <f>SUM(K31,-K33)</f>
-        <v>12890.300000000047</v>
+        <v>3198.0999999999767</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="97" t="s">
@@ -3731,7 +3754,7 @@
       </c>
       <c r="N32" s="98">
         <f>SUM(N31,-K32)</f>
-        <v>103859.69999999995</v>
+        <v>113551.90000000002</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -3758,7 +3781,7 @@
       </c>
       <c r="K33" s="96">
         <f>SUM(D12,D29)</f>
-        <v>347609.69999999995</v>
+        <v>357301.9</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -4190,7 +4213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -1826,8 +1826,8 @@
   <dimension ref="A1:AZ61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2999,8 +2999,12 @@
         <v>402.3</v>
       </c>
       <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="K19" s="34">
+        <v>208.2</v>
+      </c>
+      <c r="L19" s="34">
+        <v>211.3</v>
+      </c>
       <c r="M19" s="34"/>
       <c r="N19" s="15"/>
       <c r="O19" s="4"/>
@@ -3065,9 +3069,15 @@
       <c r="J20" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
+      <c r="K20" s="34">
+        <v>1</v>
+      </c>
+      <c r="L20" s="34">
+        <v>2</v>
+      </c>
+      <c r="M20" s="34">
+        <v>3</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -3732,7 +3742,7 @@
       </c>
       <c r="N31" s="96">
         <f>SUM(A39,A48,A58)</f>
-        <v>116750</v>
+        <v>116000</v>
       </c>
       <c r="O31" s="2"/>
     </row>
@@ -3754,7 +3764,7 @@
       </c>
       <c r="N32" s="98">
         <f>SUM(N31,-K32)</f>
-        <v>113551.90000000002</v>
+        <v>112801.90000000002</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -3964,10 +3974,10 @@
     <row r="43" spans="1:14">
       <c r="A43" s="23">
         <f>SUM(B43:C43)</f>
-        <v>10750</v>
+        <v>10000</v>
       </c>
       <c r="B43" s="25">
-        <v>10750</v>
+        <v>10000</v>
       </c>
       <c r="C43" s="27">
         <f>SUM(D43:U43)</f>
@@ -4041,11 +4051,11 @@
     <row r="48" spans="1:14">
       <c r="A48" s="24">
         <f>SUM(A43,A45,A47)</f>
-        <v>10750</v>
+        <v>10000</v>
       </c>
       <c r="B48" s="25">
         <f>SUM(B43,B45,B47)</f>
-        <v>10750</v>
+        <v>10000</v>
       </c>
       <c r="C48" s="25">
         <f>SUM(C43,C45,C47)</f>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="206">
   <si>
     <t>额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,10 +847,6 @@
   </si>
   <si>
     <t>924利息..</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1826,8 +1822,8 @@
   <dimension ref="A1:AZ61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1981,24 +1977,20 @@
       <c r="B3" s="4">
         <v>88000</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>1307.3</v>
+      </c>
       <c r="D3" s="9">
         <f>B3-C3-E3</f>
-        <v>87086.9</v>
+        <v>86692.7</v>
       </c>
       <c r="E3" s="8">
         <f>SUM(F3:BE3)</f>
-        <v>913.1</v>
-      </c>
-      <c r="F3" s="47">
-        <v>300</v>
-      </c>
-      <c r="G3" s="39">
-        <v>311.5</v>
-      </c>
-      <c r="H3" s="39">
-        <v>301.60000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
@@ -2052,15 +2044,9 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>195</v>
-      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
@@ -2113,18 +2099,18 @@
       <c r="B5" s="4">
         <v>45000</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>2506.5300000000002</v>
+      </c>
       <c r="D5" s="9">
         <f>B5-C5-E5</f>
-        <v>43155</v>
+        <v>42493.47</v>
       </c>
       <c r="E5" s="8">
         <f>SUM(F5:BE5)</f>
-        <v>1845</v>
-      </c>
-      <c r="F5" s="33">
-        <v>1845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F5" s="33"/>
       <c r="G5" s="37"/>
       <c r="H5" s="33"/>
       <c r="I5" s="37"/>
@@ -2182,9 +2168,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="34" t="s">
-        <v>204</v>
-      </c>
+      <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -2477,7 +2461,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="84">
-        <v>0</v>
+        <v>385.67</v>
       </c>
       <c r="C11" s="84"/>
       <c r="D11" s="84">
@@ -2486,10 +2470,14 @@
       </c>
       <c r="E11" s="85">
         <f>SUM(F11:BE11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
+        <v>385.66999999999996</v>
+      </c>
+      <c r="F11" s="86">
+        <v>180</v>
+      </c>
+      <c r="G11" s="86">
+        <v>205.67</v>
+      </c>
       <c r="H11" s="86"/>
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
@@ -2542,19 +2530,19 @@
       </c>
       <c r="B12" s="12">
         <f>SUM(B3,B5,B7,B9,B11)</f>
-        <v>150500</v>
+        <v>150885.67000000001</v>
       </c>
       <c r="C12" s="82">
         <f>SUM(C3,C5,C7,C9,C11)</f>
-        <v>0</v>
+        <v>3813.83</v>
       </c>
       <c r="D12" s="7">
         <f>SUM(D3,D5,D7,D9,D11)</f>
-        <v>147741.9</v>
+        <v>146686.16999999998</v>
       </c>
       <c r="E12" s="7">
         <f>SUM(E3,E5,E7,E9,E11)</f>
-        <v>2758.1</v>
+        <v>385.66999999999996</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -2856,12 +2844,12 @@
         <v>5</v>
       </c>
       <c r="B17" s="4">
-        <v>108000</v>
+        <v>27000</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="59">
         <f>B17-C17-E17</f>
-        <v>108000</v>
+        <v>27000</v>
       </c>
       <c r="E17" s="9">
         <f>SUM(F17:BE17)</f>
@@ -2983,9 +2971,12 @@
       <c r="C19" s="3"/>
       <c r="D19" s="9">
         <f>B19-C19-E19</f>
-        <v>21000</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>19358.2</v>
+      </c>
+      <c r="E19" s="9">
+        <f>SUM(F19:BE19)</f>
+        <v>1641.8</v>
+      </c>
       <c r="F19" s="34">
         <v>201</v>
       </c>
@@ -3005,7 +2996,9 @@
       <c r="L19" s="34">
         <v>211.3</v>
       </c>
-      <c r="M19" s="34"/>
+      <c r="M19" s="34">
+        <v>206</v>
+      </c>
       <c r="N19" s="15"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -3067,7 +3060,7 @@
       </c>
       <c r="I20" s="34"/>
       <c r="J20" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K20" s="34">
         <v>1</v>
@@ -3370,14 +3363,12 @@
       </c>
       <c r="B25" s="21">
         <f>SUM(A31,-B11)</f>
-        <v>20000</v>
-      </c>
-      <c r="C25" s="3">
-        <v>50</v>
-      </c>
+        <v>19614.330000000002</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="9">
         <f>B25-C25-E25</f>
-        <v>19720</v>
+        <v>19384.330000000002</v>
       </c>
       <c r="E25" s="9">
         <f>SUM(F25:BE25)</f>
@@ -3627,22 +3618,22 @@
       </c>
       <c r="B29" s="13">
         <f>SUM(B15,B17,B19,B21,B23,B25,B27)</f>
-        <v>210000</v>
+        <v>128614.33</v>
       </c>
       <c r="C29" s="19">
         <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D29" s="11">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>209560</v>
+        <v>126582.53</v>
       </c>
       <c r="E29" s="11">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>390</v>
+        <v>2031.8</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
@@ -3734,7 +3725,7 @@
       </c>
       <c r="K31" s="96">
         <f>SUM(B12,B29)</f>
-        <v>360500</v>
+        <v>279500</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="71" t="s">
@@ -3756,7 +3747,7 @@
       </c>
       <c r="K32" s="95">
         <f>SUM(K31,-K33)</f>
-        <v>3198.0999999999767</v>
+        <v>6231.3000000000466</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="97" t="s">
@@ -3764,7 +3755,7 @@
       </c>
       <c r="N32" s="98">
         <f>SUM(N31,-K32)</f>
-        <v>112801.90000000002</v>
+        <v>109768.69999999995</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -3791,7 +3782,7 @@
       </c>
       <c r="K33" s="96">
         <f>SUM(D12,D29)</f>
-        <v>357301.9</v>
+        <v>273268.69999999995</v>
       </c>
       <c r="L33" s="2"/>
     </row>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -17,13 +17,14 @@
     <sheet name="20170824" sheetId="33" r:id="rId8"/>
     <sheet name="20170910" sheetId="35" r:id="rId9"/>
     <sheet name="20170925" sheetId="36" r:id="rId10"/>
+    <sheet name="20171028" sheetId="37" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="209">
   <si>
     <t>额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,10 +604,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>加油</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>724人人</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -842,19 +839,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>10.24丽芬1.8W</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>924利息..</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>奶粉白金卡</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>暂无399了</t>
+    <t>淘宝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过户税</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍1W</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东白条</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修车</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶粉</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1823,7 +1836,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1977,12 +1990,10 @@
       <c r="B3" s="4">
         <v>88000</v>
       </c>
-      <c r="C3" s="3">
-        <v>1307.3</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="9">
         <f>B3-C3-E3</f>
-        <v>86692.7</v>
+        <v>88000</v>
       </c>
       <c r="E3" s="8">
         <f>SUM(F3:BE3)</f>
@@ -2097,23 +2108,29 @@
         <v>11</v>
       </c>
       <c r="B5" s="4">
-        <v>45000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2506.5300000000002</v>
-      </c>
+        <v>48000</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="9">
         <f>B5-C5-E5</f>
-        <v>42493.47</v>
+        <v>43000</v>
       </c>
       <c r="E5" s="8">
         <f>SUM(F5:BE5)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="37"/>
+        <v>5000</v>
+      </c>
+      <c r="F5" s="33">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="37">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="33">
+        <v>3500</v>
+      </c>
+      <c r="I5" s="37">
+        <v>-3500</v>
+      </c>
       <c r="J5" s="33"/>
       <c r="K5" s="37"/>
       <c r="L5" s="33"/>
@@ -2162,15 +2179,21 @@
       <c r="A6" s="15">
         <v>28</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>182</v>
+      <c r="B6" s="15">
+        <v>11.3</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>208</v>
+      </c>
       <c r="I6" s="34"/>
       <c r="J6" s="4"/>
       <c r="K6" s="34"/>
@@ -2346,7 +2369,2369 @@
       <c r="C9" s="4"/>
       <c r="D9" s="9">
         <f>B9-C9-E9</f>
+        <v>12637</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SUM(F9:BE9)</f>
+        <v>4363</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4363</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+    </row>
+    <row r="10" spans="1:52" s="80" customFormat="1">
+      <c r="A10" s="15">
+        <v>30</v>
+      </c>
+      <c r="B10" s="101"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+    </row>
+    <row r="11" spans="1:52" s="88" customFormat="1">
+      <c r="A11" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="84">
+        <v>0</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84">
+        <f>B11-C11-E11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="85">
+        <f>SUM(F11:BE11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23"/>
+    </row>
+    <row r="12" spans="1:52" s="10" customFormat="1">
+      <c r="A12" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="12">
+        <f>SUM(B3,B5,B7,B9,B11)</f>
+        <v>153500</v>
+      </c>
+      <c r="C12" s="82">
+        <f>SUM(C3,C5,C7,C9,C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <f>SUM(D3,D5,D7,D9,D11)</f>
+        <v>144137</v>
+      </c>
+      <c r="E12" s="7">
+        <f>SUM(E3,E5,E7,E9,E11)</f>
+        <v>9363</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+    </row>
+    <row r="13" spans="1:52" s="69" customFormat="1">
+      <c r="A13" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="64">
+        <v>30000</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65">
+        <f>B13-C13-E13</f>
+        <v>30000</v>
+      </c>
+      <c r="E13" s="65">
+        <f>SUM(F13:BE13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+    </row>
+    <row r="14" spans="1:52" s="69" customFormat="1">
+      <c r="A14" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="64">
+        <v>14</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="68"/>
+      <c r="AU14" s="68"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+    </row>
+    <row r="15" spans="1:52" s="2" customFormat="1">
+      <c r="A15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8">
+        <f>B15-C15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="105"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="55"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="55"/>
+      <c r="AP15" s="55"/>
+      <c r="AQ15" s="55"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="55"/>
+      <c r="AW15" s="55"/>
+      <c r="AX15" s="55"/>
+      <c r="AY15" s="55"/>
+      <c r="AZ15" s="55"/>
+    </row>
+    <row r="16" spans="1:52" s="2" customFormat="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="55"/>
+      <c r="AL16" s="55"/>
+      <c r="AM16" s="55"/>
+      <c r="AN16" s="55"/>
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="55"/>
+      <c r="AR16" s="55"/>
+      <c r="AS16" s="55"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="55"/>
+      <c r="AV16" s="55"/>
+      <c r="AW16" s="55"/>
+      <c r="AX16" s="55"/>
+      <c r="AY16" s="55"/>
+      <c r="AZ16" s="55"/>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>27000</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="59">
+        <f>B17-C17-E17</f>
+        <v>27000</v>
+      </c>
+      <c r="E17" s="9">
+        <f>SUM(F17:BE17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="32">
+        <v>11.15</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="A19" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
+        <v>21000</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9">
+        <f>B19-C19-E19</f>
+        <v>21000</v>
+      </c>
+      <c r="E19" s="9">
+        <f>SUM(F19:BE19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="A20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="15">
+        <v>11.12</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <v>13000</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="9">
+        <f>B21-C21-E21</f>
+        <v>13000</v>
+      </c>
+      <c r="E21" s="8">
+        <f>SUM(F21:BE21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="A22" s="6"/>
+      <c r="B22" s="32">
+        <v>11.13</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4">
+        <v>36000</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9">
+        <f>B23-C23-E23</f>
+        <v>36000</v>
+      </c>
+      <c r="E23" s="9">
+        <f>SUM(F23:BE23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" s="6"/>
+      <c r="B24" s="15">
+        <v>11.14</v>
+      </c>
+      <c r="C24" s="89"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="A25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="21">
+        <f>SUM(A31,-B11)</f>
+        <v>20000</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="9">
+        <f>B25-C25-E25</f>
+        <v>20000</v>
+      </c>
+      <c r="E25" s="9">
+        <f>SUM(F25:BE25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="15">
+        <v>11.14</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
+    </row>
+    <row r="27" spans="1:52">
+      <c r="A27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4">
+        <v>16000</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="9">
+        <f>B27-C27-E27</f>
+        <v>16000</v>
+      </c>
+      <c r="E27" s="9">
+        <f>SUM(F27:BE27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="14"/>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="A28" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="21">
+        <v>9.15</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+    </row>
+    <row r="29" spans="1:52" s="10" customFormat="1">
+      <c r="A29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="13">
+        <f>SUM(B15,B17,B19,B21,B23,B25,B27)</f>
+        <v>133000</v>
+      </c>
+      <c r="C29" s="19">
+        <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
+        <v>133000</v>
+      </c>
+      <c r="E29" s="11">
+        <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="11"/>
+    </row>
+    <row r="30" spans="1:52" s="2" customFormat="1">
+      <c r="A30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" s="91">
+        <v>20000</v>
+      </c>
+      <c r="B31" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="96">
+        <f>SUM(B12,B29)</f>
+        <v>286500</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" s="96">
+        <f>SUM(A39,A48,A58)</f>
+        <v>104000</v>
+      </c>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="F32" s="2"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="95">
+        <f>SUM(K31,-K33)</f>
+        <v>9363</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="N32" s="98">
+        <f>SUM(N31,-K32)</f>
+        <v>94637</v>
+      </c>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="96">
+        <f>SUM(D12,D29)</f>
+        <v>277137</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="23">
+        <f>SUM(B34:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0</v>
+      </c>
+      <c r="C34" s="27">
+        <f>SUM(D34:R34)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="60"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="23">
+        <f>SUM(B36:C36)</f>
+        <v>60000</v>
+      </c>
+      <c r="B36" s="25">
+        <v>0</v>
+      </c>
+      <c r="C36" s="51">
+        <f>SUM(D36:R36)</f>
+        <v>60000</v>
+      </c>
+      <c r="D36" s="31">
+        <v>30000</v>
+      </c>
+      <c r="E36" s="31">
+        <v>20000</v>
+      </c>
+      <c r="F36" s="30">
+        <v>10000</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="106">
+        <v>43110</v>
+      </c>
+      <c r="E37" s="106">
+        <v>43297</v>
+      </c>
+      <c r="F37" s="106">
+        <v>43116</v>
+      </c>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="23">
+        <f>SUM(B38:C38)</f>
+        <v>10000</v>
+      </c>
+      <c r="B38" s="25">
+        <v>0</v>
+      </c>
+      <c r="C38" s="27">
+        <f>SUM(D38:R38)</f>
+        <v>10000</v>
+      </c>
+      <c r="D38" s="30">
+        <v>10000</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="21">
+        <f>SUM(A34,A36,A38)</f>
+        <v>70000</v>
+      </c>
+      <c r="B39" s="25">
+        <f>SUM(B34,B36,B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="25">
+        <f>SUM(C34,C36,C38)</f>
+        <v>70000</v>
+      </c>
+      <c r="D39" s="106">
+        <v>43275</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="102">
+        <v>20180624</v>
+      </c>
+      <c r="F40" s="102"/>
+      <c r="G40" s="90"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="25">
+        <v>50080</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="N41" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="23">
+        <f>SUM(B43:C43)</f>
+        <v>27000</v>
+      </c>
+      <c r="B43" s="25">
+        <v>27000</v>
+      </c>
+      <c r="C43" s="27">
+        <f>SUM(D43:U43)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="23"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="23">
+        <f>SUM(B45:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="B45" s="25">
+        <v>0</v>
+      </c>
+      <c r="C45" s="27">
+        <f>SUM(D45:U45)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="23">
+        <f>SUM(B47:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="B47" s="25">
+        <v>0</v>
+      </c>
+      <c r="C47" s="27">
+        <f>SUM(D47:U47)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="24">
+        <f>SUM(A43,A45,A47)</f>
+        <v>27000</v>
+      </c>
+      <c r="B48" s="25">
+        <f>SUM(B43,B45,B47)</f>
+        <v>27000</v>
+      </c>
+      <c r="C48" s="25">
+        <f>SUM(C43,C45,C47)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="71"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="23">
+        <f>SUM(B53:C53)</f>
+        <v>7000</v>
+      </c>
+      <c r="B53" s="25">
+        <v>0</v>
+      </c>
+      <c r="C53" s="27">
+        <f>SUM(D53:U53)</f>
+        <v>7000</v>
+      </c>
+      <c r="D53" s="30">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="31">
+        <v>5000</v>
+      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="23"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="29">
+        <v>42743</v>
+      </c>
+      <c r="E54" s="29">
+        <v>43082</v>
+      </c>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="23">
+        <f>SUM(B55:C55)</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="25">
+        <v>0</v>
+      </c>
+      <c r="C55" s="27">
+        <f>SUM(D55:U55)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="23"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="60"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="23">
+        <f>SUM(B57:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="B57" s="25">
+        <v>0</v>
+      </c>
+      <c r="C57" s="27">
+        <f>SUM(D57:U57)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="24">
+        <f>SUM(A53,A55,A57)</f>
+        <v>7000</v>
+      </c>
+      <c r="B58" s="25">
+        <f>SUM(B53,B55,B57)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="25">
+        <f>SUM(C53,C55,C57)</f>
+        <v>7000</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="90"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="110"/>
+      <c r="B61" s="111">
+        <v>42990</v>
+      </c>
+      <c r="C61" s="90"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ61"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="24" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52">
+      <c r="A1" s="14"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+    </row>
+    <row r="2" spans="1:52">
+      <c r="A2" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+    </row>
+    <row r="3" spans="1:52" s="2" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>19390.03</v>
+      </c>
+      <c r="D3" s="9">
+        <f>B3-C3-E3</f>
+        <v>67696.87</v>
+      </c>
+      <c r="E3" s="8">
+        <f>SUM(F3:BE3)</f>
+        <v>913.1</v>
+      </c>
+      <c r="F3" s="47">
+        <v>300</v>
+      </c>
+      <c r="G3" s="39">
+        <v>311.5</v>
+      </c>
+      <c r="H3" s="39">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4" s="15">
+        <v>29</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+    </row>
+    <row r="5" spans="1:52" s="2" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>22618.65</v>
+      </c>
+      <c r="D5" s="9">
+        <f>B5-C5-E5</f>
+        <v>22381.35</v>
+      </c>
+      <c r="E5" s="8">
+        <f>SUM(F5:BE5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" s="15">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4">
+        <v>500</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="9">
+        <f>B7-C7-E7</f>
+        <v>500</v>
+      </c>
+      <c r="E7" s="8">
+        <f>SUM(F7:BE7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
         <v>17000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10082.200000000001</v>
+      </c>
+      <c r="D9" s="9">
+        <f>B9-C9-E9</f>
+        <v>6917.7999999999993</v>
       </c>
       <c r="E9" s="8">
         <f>SUM(F9:BE9)</f>
@@ -2458,10 +4843,10 @@
     </row>
     <row r="11" spans="1:52" s="88" customFormat="1">
       <c r="A11" s="83" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B11" s="84">
-        <v>385.67</v>
+        <v>0</v>
       </c>
       <c r="C11" s="84"/>
       <c r="D11" s="84">
@@ -2470,14 +4855,10 @@
       </c>
       <c r="E11" s="85">
         <f>SUM(F11:BE11)</f>
-        <v>385.66999999999996</v>
-      </c>
-      <c r="F11" s="86">
-        <v>180</v>
-      </c>
-      <c r="G11" s="86">
-        <v>205.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="86"/>
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
@@ -2526,23 +4907,23 @@
     </row>
     <row r="12" spans="1:52" s="10" customFormat="1">
       <c r="A12" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="12">
         <f>SUM(B3,B5,B7,B9,B11)</f>
-        <v>150885.67000000001</v>
+        <v>150500</v>
       </c>
       <c r="C12" s="82">
         <f>SUM(C3,C5,C7,C9,C11)</f>
-        <v>3813.83</v>
+        <v>52090.880000000005</v>
       </c>
       <c r="D12" s="7">
         <f>SUM(D3,D5,D7,D9,D11)</f>
-        <v>146686.16999999998</v>
+        <v>97496.02</v>
       </c>
       <c r="E12" s="7">
         <f>SUM(E3,E5,E7,E9,E11)</f>
-        <v>385.66999999999996</v>
+        <v>913.1</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -2800,7 +5181,7 @@
       <c r="N16" s="33"/>
       <c r="O16" s="33"/>
       <c r="P16" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -2844,23 +5225,35 @@
         <v>5</v>
       </c>
       <c r="B17" s="4">
-        <v>27000</v>
+        <v>108000</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="59">
         <f>B17-C17-E17</f>
-        <v>27000</v>
+        <v>108000</v>
       </c>
       <c r="E17" s="9">
         <f>SUM(F17:BE17)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="F17" s="34">
+        <v>8500</v>
+      </c>
+      <c r="G17" s="34">
+        <v>6680</v>
+      </c>
+      <c r="H17" s="34">
+        <v>5367.5</v>
+      </c>
+      <c r="I17" s="34">
+        <v>202.75</v>
+      </c>
+      <c r="J17" s="34">
+        <v>3</v>
+      </c>
+      <c r="K17" s="34">
+        <v>-20753.25</v>
+      </c>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
@@ -2905,7 +5298,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="32">
         <v>9.17</v>
@@ -2913,12 +5306,20 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="F18" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>190</v>
+      </c>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="K18" s="34" t="s">
+        <v>199</v>
+      </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
@@ -2971,43 +5372,63 @@
       <c r="C19" s="3"/>
       <c r="D19" s="9">
         <f>B19-C19-E19</f>
-        <v>19358.2</v>
+        <v>21043.3</v>
       </c>
       <c r="E19" s="9">
         <f>SUM(F19:BE19)</f>
-        <v>1641.8</v>
+        <v>-43.299999999999272</v>
       </c>
       <c r="F19" s="34">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="G19" s="34">
+        <v>402.5</v>
+      </c>
+      <c r="H19" s="34">
+        <v>723.5</v>
+      </c>
+      <c r="I19" s="34">
+        <v>410.5</v>
+      </c>
+      <c r="J19" s="34">
+        <v>205</v>
+      </c>
+      <c r="K19" s="34">
+        <v>206</v>
+      </c>
+      <c r="L19" s="34">
+        <v>303.5</v>
+      </c>
+      <c r="M19" s="34">
+        <v>3560</v>
+      </c>
+      <c r="N19" s="15">
+        <v>400</v>
+      </c>
+      <c r="O19" s="4">
+        <v>206.5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>200.5</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>408</v>
+      </c>
+      <c r="R19" s="4">
         <v>210</v>
       </c>
-      <c r="H19" s="34">
-        <v>203</v>
-      </c>
-      <c r="I19" s="34">
-        <v>402.3</v>
-      </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34">
-        <v>208.2</v>
-      </c>
-      <c r="L19" s="34">
-        <v>211.3</v>
-      </c>
-      <c r="M19" s="34">
-        <v>206</v>
-      </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="S19" s="4">
+        <v>203.2</v>
+      </c>
+      <c r="T19" s="4">
+        <v>211.5</v>
+      </c>
+      <c r="U19" s="4">
+        <v>401</v>
+      </c>
+      <c r="V19" s="4">
+        <v>-9095</v>
+      </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -3052,34 +5473,56 @@
         <v>20</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34" t="s">
-        <v>205</v>
+        <v>35</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="34">
+        <v>2</v>
       </c>
       <c r="K20" s="34">
+        <v>3</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="P20" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="34">
         <v>1</v>
       </c>
-      <c r="L20" s="34">
+      <c r="R20" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="S20" s="4">
+        <v>3</v>
+      </c>
+      <c r="T20" s="4">
+        <v>78.914000000000001</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4">
         <v>2</v>
       </c>
-      <c r="M20" s="34">
-        <v>3</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -3127,9 +5570,15 @@
         <f>SUM(F21:BE21)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
+      <c r="F21" s="35">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="34">
+        <v>3690</v>
+      </c>
+      <c r="H21" s="35">
+        <v>-8690</v>
+      </c>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
@@ -3183,8 +5632,12 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="F22" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>189</v>
+      </c>
       <c r="H22" s="34"/>
       <c r="I22" s="78"/>
       <c r="J22" s="34"/>
@@ -3241,20 +5694,30 @@
       <c r="C23" s="3"/>
       <c r="D23" s="9">
         <f>B23-C23-E23</f>
-        <v>35840</v>
+        <v>25142.3</v>
       </c>
       <c r="E23" s="9">
         <f>SUM(F23:BE23)</f>
-        <v>160</v>
+        <v>10857.7</v>
       </c>
       <c r="F23" s="34">
-        <v>160</v>
-      </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+        <v>1000</v>
+      </c>
+      <c r="G23" s="34">
+        <v>1010</v>
+      </c>
+      <c r="H23" s="34">
+        <v>5635.7</v>
+      </c>
+      <c r="I23" s="34">
+        <v>2336</v>
+      </c>
+      <c r="J23" s="34">
+        <v>896</v>
+      </c>
+      <c r="K23" s="34">
+        <v>-20</v>
+      </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
@@ -3308,12 +5771,20 @@
         <v>20</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+        <v>148</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>190</v>
+      </c>
       <c r="K24" s="34"/>
       <c r="L24" s="4"/>
       <c r="M24" s="34"/>
@@ -3363,25 +5834,29 @@
       </c>
       <c r="B25" s="21">
         <f>SUM(A31,-B11)</f>
-        <v>19614.330000000002</v>
+        <v>20000</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9">
         <f>B25-C25-E25</f>
-        <v>19384.330000000002</v>
+        <v>20000</v>
       </c>
       <c r="E25" s="9">
         <f>SUM(F25:BE25)</f>
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="F25" s="34">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="G25" s="34">
-        <v>180</v>
-      </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
+        <v>3500</v>
+      </c>
+      <c r="H25" s="34">
+        <v>100</v>
+      </c>
+      <c r="I25" s="34">
+        <v>-3723</v>
+      </c>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
@@ -3438,9 +5913,15 @@
       <c r="E26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="F26" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>191</v>
+      </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
@@ -3496,17 +5977,27 @@
       <c r="C27" s="3"/>
       <c r="D27" s="9">
         <f>B27-C27-E27</f>
-        <v>12000</v>
+        <v>6079.15</v>
       </c>
       <c r="E27" s="9">
         <f>SUM(F27:BE27)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+        <v>5920.85</v>
+      </c>
+      <c r="F27" s="34">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="15">
+        <v>4585</v>
+      </c>
+      <c r="H27" s="15">
+        <v>290</v>
+      </c>
+      <c r="I27" s="34">
+        <v>-50</v>
+      </c>
+      <c r="J27" s="34">
+        <v>95.85</v>
+      </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
@@ -3552,23 +6043,29 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="21">
         <v>9.15</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="34">
-        <v>224</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="15"/>
+      <c r="F28" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="J28" s="34">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -3618,7 +6115,7 @@
       </c>
       <c r="B29" s="13">
         <f>SUM(B15,B17,B19,B21,B23,B25,B27)</f>
-        <v>128614.33</v>
+        <v>210000</v>
       </c>
       <c r="C29" s="19">
         <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
@@ -3626,18 +6123,18 @@
       </c>
       <c r="D29" s="11">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>126582.53</v>
+        <v>193264.74999999997</v>
       </c>
       <c r="E29" s="11">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>2031.8</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>204</v>
-      </c>
+        <v>16735.25</v>
+      </c>
+      <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
+      <c r="I29" s="45">
+        <v>4875</v>
+      </c>
       <c r="J29" s="45"/>
       <c r="K29" s="45"/>
       <c r="L29" s="45"/>
@@ -3725,7 +6222,7 @@
       </c>
       <c r="K31" s="96">
         <f>SUM(B12,B29)</f>
-        <v>279500</v>
+        <v>360500</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="71" t="s">
@@ -3733,7 +6230,7 @@
       </c>
       <c r="N31" s="96">
         <f>SUM(A39,A48,A58)</f>
-        <v>116000</v>
+        <v>155300</v>
       </c>
       <c r="O31" s="2"/>
     </row>
@@ -3747,7 +6244,7 @@
       </c>
       <c r="K32" s="95">
         <f>SUM(K31,-K33)</f>
-        <v>6231.3000000000466</v>
+        <v>69739.23000000004</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="97" t="s">
@@ -3755,7 +6252,7 @@
       </c>
       <c r="N32" s="98">
         <f>SUM(N31,-K32)</f>
-        <v>109768.69999999995</v>
+        <v>85560.76999999996</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -3770,7 +6267,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -3782,7 +6279,7 @@
       </c>
       <c r="K33" s="96">
         <f>SUM(D12,D29)</f>
-        <v>273268.69999999995</v>
+        <v>290760.76999999996</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -3925,9 +6422,7 @@
       <c r="F40" s="102">
         <v>20180624</v>
       </c>
-      <c r="G40" s="90" t="s">
-        <v>203</v>
-      </c>
+      <c r="G40" s="90"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:14">
@@ -3940,7 +6435,7 @@
       </c>
       <c r="D41" s="60"/>
       <c r="N41" s="1" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3954,7 +6449,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
@@ -3965,10 +6460,10 @@
     <row r="43" spans="1:14">
       <c r="A43" s="23">
         <f>SUM(B43:C43)</f>
-        <v>10000</v>
+        <v>49300</v>
       </c>
       <c r="B43" s="25">
-        <v>10000</v>
+        <v>49300</v>
       </c>
       <c r="C43" s="27">
         <f>SUM(D43:U43)</f>
@@ -4042,11 +6537,11 @@
     <row r="48" spans="1:14">
       <c r="A48" s="24">
         <f>SUM(A43,A45,A47)</f>
-        <v>10000</v>
+        <v>49300</v>
       </c>
       <c r="B48" s="25">
         <f>SUM(B43,B45,B47)</f>
-        <v>10000</v>
+        <v>49300</v>
       </c>
       <c r="C48" s="25">
         <f>SUM(C43,C45,C47)</f>
@@ -4076,7 +6571,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
@@ -4186,15 +6681,12 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B60" s="102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" s="90"/>
-      <c r="D60" s="1" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="110"/>
@@ -4210,13 +6702,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4370,26 +6862,18 @@
       <c r="B3" s="4">
         <v>88000</v>
       </c>
-      <c r="C3" s="3">
-        <v>19390.03</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="9">
         <f>B3-C3-E3</f>
-        <v>67696.87</v>
+        <v>88000</v>
       </c>
       <c r="E3" s="8">
         <f>SUM(F3:BE3)</f>
-        <v>913.1</v>
-      </c>
-      <c r="F3" s="47">
-        <v>300</v>
-      </c>
-      <c r="G3" s="39">
-        <v>311.5</v>
-      </c>
-      <c r="H3" s="39">
-        <v>301.60000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
@@ -4443,15 +6927,9 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>195</v>
-      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
@@ -4502,20 +6980,20 @@
         <v>11</v>
       </c>
       <c r="B5" s="4">
-        <v>45000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>22618.65</v>
-      </c>
+        <v>48000</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="9">
         <f>B5-C5-E5</f>
-        <v>22381.35</v>
+        <v>47246.87</v>
       </c>
       <c r="E5" s="8">
         <f>SUM(F5:BE5)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="33"/>
+        <v>753.13</v>
+      </c>
+      <c r="F5" s="33">
+        <v>753.13</v>
+      </c>
       <c r="G5" s="37"/>
       <c r="H5" s="33"/>
       <c r="I5" s="37"/>
@@ -4567,13 +7045,13 @@
       <c r="A6" s="15">
         <v>28</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>182</v>
-      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="34"/>
+      <c r="F6" s="34" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -4748,12 +7226,10 @@
       <c r="B9" s="4">
         <v>17000</v>
       </c>
-      <c r="C9" s="4">
-        <v>10082.200000000001</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="9">
         <f>B9-C9-E9</f>
-        <v>6917.7999999999993</v>
+        <v>17000</v>
       </c>
       <c r="E9" s="8">
         <f>SUM(F9:BE9)</f>
@@ -4868,7 +7344,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="84">
-        <v>0</v>
+        <v>385.67</v>
       </c>
       <c r="C11" s="84"/>
       <c r="D11" s="84">
@@ -4877,10 +7353,14 @@
       </c>
       <c r="E11" s="85">
         <f>SUM(F11:BE11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
+        <v>385.66999999999996</v>
+      </c>
+      <c r="F11" s="86">
+        <v>180</v>
+      </c>
+      <c r="G11" s="86">
+        <v>205.67</v>
+      </c>
       <c r="H11" s="86"/>
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
@@ -4929,23 +7409,23 @@
     </row>
     <row r="12" spans="1:52" s="10" customFormat="1">
       <c r="A12" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="12">
         <f>SUM(B3,B5,B7,B9,B11)</f>
-        <v>150500</v>
+        <v>153885.67000000001</v>
       </c>
       <c r="C12" s="82">
         <f>SUM(C3,C5,C7,C9,C11)</f>
-        <v>52090.880000000005</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
         <f>SUM(D3,D5,D7,D9,D11)</f>
-        <v>97496.02</v>
+        <v>152746.87</v>
       </c>
       <c r="E12" s="7">
         <f>SUM(E3,E5,E7,E9,E11)</f>
-        <v>913.1</v>
+        <v>1138.8</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5247,35 +7727,29 @@
         <v>5</v>
       </c>
       <c r="B17" s="4">
-        <v>108000</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>27000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>151.47999999999999</v>
+      </c>
       <c r="D17" s="59">
         <f>B17-C17-E17</f>
-        <v>108000</v>
+        <v>48.520000000000437</v>
       </c>
       <c r="E17" s="9">
         <f>SUM(F17:BE17)</f>
-        <v>0</v>
+        <v>26800</v>
       </c>
       <c r="F17" s="34">
-        <v>8500</v>
+        <v>-200</v>
       </c>
       <c r="G17" s="34">
-        <v>6680</v>
-      </c>
-      <c r="H17" s="34">
-        <v>5367.5</v>
-      </c>
-      <c r="I17" s="34">
-        <v>202.75</v>
-      </c>
-      <c r="J17" s="34">
-        <v>3</v>
-      </c>
-      <c r="K17" s="34">
-        <v>-20753.25</v>
-      </c>
+        <v>27000</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
@@ -5320,28 +7794,24 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="32">
-        <v>9.17</v>
+        <v>11.15</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="34" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>191</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
-      <c r="K18" s="34" t="s">
-        <v>200</v>
-      </c>
+      <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
@@ -5394,63 +7864,29 @@
       <c r="C19" s="3"/>
       <c r="D19" s="9">
         <f>B19-C19-E19</f>
-        <v>21043.3</v>
+        <v>21000</v>
       </c>
       <c r="E19" s="9">
         <f>SUM(F19:BE19)</f>
-        <v>-43.299999999999272</v>
-      </c>
-      <c r="F19" s="34">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="34">
-        <v>402.5</v>
-      </c>
-      <c r="H19" s="34">
-        <v>723.5</v>
-      </c>
-      <c r="I19" s="34">
-        <v>410.5</v>
-      </c>
-      <c r="J19" s="34">
-        <v>205</v>
-      </c>
-      <c r="K19" s="34">
-        <v>206</v>
-      </c>
-      <c r="L19" s="34">
-        <v>303.5</v>
-      </c>
-      <c r="M19" s="34">
-        <v>3560</v>
-      </c>
-      <c r="N19" s="15">
-        <v>400</v>
-      </c>
-      <c r="O19" s="4">
-        <v>206.5</v>
-      </c>
-      <c r="P19" s="4">
-        <v>200.5</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>408</v>
-      </c>
-      <c r="R19" s="4">
-        <v>210</v>
-      </c>
-      <c r="S19" s="4">
-        <v>203.2</v>
-      </c>
-      <c r="T19" s="4">
-        <v>211.5</v>
-      </c>
-      <c r="U19" s="4">
-        <v>401</v>
-      </c>
-      <c r="V19" s="4">
-        <v>-9095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -5487,64 +7923,30 @@
         <v>92</v>
       </c>
       <c r="B20" s="15">
-        <v>9.1199999999999992</v>
+        <v>11.12</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="4"/>
       <c r="E20" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="J20" s="34">
-        <v>2</v>
-      </c>
-      <c r="K20" s="34">
-        <v>3</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P20" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="34">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="S20" s="4">
-        <v>3</v>
-      </c>
-      <c r="T20" s="4">
-        <v>78.914000000000001</v>
-      </c>
-      <c r="U20" s="4">
-        <v>1</v>
-      </c>
-      <c r="V20" s="4">
-        <v>2</v>
-      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -5583,24 +7985,20 @@
       <c r="B21" s="4">
         <v>13000</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>22.5</v>
+      </c>
       <c r="D21" s="9">
         <f>B21-C21-E21</f>
-        <v>13000</v>
+        <v>12977.5</v>
       </c>
       <c r="E21" s="8">
         <f>SUM(F21:BE21)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="35">
-        <v>5000</v>
-      </c>
-      <c r="G21" s="34">
-        <v>3690</v>
-      </c>
-      <c r="H21" s="35">
-        <v>-8690</v>
-      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
@@ -5649,17 +8047,13 @@
     <row r="22" spans="1:52">
       <c r="A22" s="6"/>
       <c r="B22" s="32">
-        <v>9.1300000000000008</v>
+        <v>11.13</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>190</v>
-      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="78"/>
       <c r="J22" s="34"/>
@@ -5713,33 +8107,23 @@
       <c r="B23" s="4">
         <v>36000</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3">
+        <v>158.44999999999999</v>
+      </c>
       <c r="D23" s="9">
         <f>B23-C23-E23</f>
-        <v>25142.3</v>
+        <v>35841.550000000003</v>
       </c>
       <c r="E23" s="9">
         <f>SUM(F23:BE23)</f>
-        <v>10857.7</v>
-      </c>
-      <c r="F23" s="34">
-        <v>1000</v>
-      </c>
-      <c r="G23" s="34">
-        <v>1010</v>
-      </c>
-      <c r="H23" s="34">
-        <v>5635.7</v>
-      </c>
-      <c r="I23" s="34">
-        <v>2336</v>
-      </c>
-      <c r="J23" s="34">
-        <v>896</v>
-      </c>
-      <c r="K23" s="34">
-        <v>-20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
@@ -5785,28 +8169,18 @@
     <row r="24" spans="1:52">
       <c r="A24" s="6"/>
       <c r="B24" s="15">
-        <v>9.14</v>
+        <v>11.14</v>
       </c>
       <c r="C24" s="89"/>
       <c r="D24" s="4"/>
       <c r="E24" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>191</v>
-      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="4"/>
       <c r="M24" s="34"/>
@@ -5856,29 +8230,23 @@
       </c>
       <c r="B25" s="21">
         <f>SUM(A31,-B11)</f>
-        <v>20000</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>19614.330000000002</v>
+      </c>
+      <c r="C25" s="3">
+        <v>280</v>
+      </c>
       <c r="D25" s="9">
         <f>B25-C25-E25</f>
-        <v>20000</v>
+        <v>19334.330000000002</v>
       </c>
       <c r="E25" s="9">
         <f>SUM(F25:BE25)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="34">
-        <v>123</v>
-      </c>
-      <c r="G25" s="34">
-        <v>3500</v>
-      </c>
-      <c r="H25" s="34">
-        <v>100</v>
-      </c>
-      <c r="I25" s="34">
-        <v>-3723</v>
-      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
@@ -5928,22 +8296,16 @@
         <v>44</v>
       </c>
       <c r="B26" s="15">
-        <v>9.14</v>
+        <v>11.14</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="4"/>
       <c r="E26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>192</v>
-      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
@@ -5999,27 +8361,17 @@
       <c r="C27" s="3"/>
       <c r="D27" s="9">
         <f>B27-C27-E27</f>
-        <v>6079.15</v>
+        <v>12000</v>
       </c>
       <c r="E27" s="9">
         <f>SUM(F27:BE27)</f>
-        <v>5920.85</v>
-      </c>
-      <c r="F27" s="34">
-        <v>1000</v>
-      </c>
-      <c r="G27" s="15">
-        <v>4585</v>
-      </c>
-      <c r="H27" s="15">
-        <v>290</v>
-      </c>
-      <c r="I27" s="34">
-        <v>-50</v>
-      </c>
-      <c r="J27" s="34">
-        <v>95.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
@@ -6065,29 +8417,23 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="21">
         <v>9.15</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="F28" s="34">
+        <v>224</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="34"/>
-      <c r="J28" s="34">
-        <v>9.6999999999999993</v>
-      </c>
+      <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -6137,26 +8483,26 @@
       </c>
       <c r="B29" s="13">
         <f>SUM(B15,B17,B19,B21,B23,B25,B27)</f>
-        <v>210000</v>
+        <v>128614.33</v>
       </c>
       <c r="C29" s="19">
         <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>0</v>
+        <v>612.42999999999995</v>
       </c>
       <c r="D29" s="11">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>193264.74999999997</v>
+        <v>101201.90000000001</v>
       </c>
       <c r="E29" s="11">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>16735.25</v>
-      </c>
-      <c r="F29" s="45"/>
+        <v>26800</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>201</v>
+      </c>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="45">
-        <v>4875</v>
-      </c>
+      <c r="I29" s="45"/>
       <c r="J29" s="45"/>
       <c r="K29" s="45"/>
       <c r="L29" s="45"/>
@@ -6231,12 +8577,8 @@
       </c>
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="53">
-        <v>1045.8499999999999</v>
-      </c>
-      <c r="G31" s="62">
-        <v>4875</v>
-      </c>
+      <c r="F31" s="53"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="90" t="s">
@@ -6244,7 +8586,7 @@
       </c>
       <c r="K31" s="96">
         <f>SUM(B12,B29)</f>
-        <v>360500</v>
+        <v>282500</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="71" t="s">
@@ -6252,7 +8594,7 @@
       </c>
       <c r="N31" s="96">
         <f>SUM(A39,A48,A58)</f>
-        <v>155300</v>
+        <v>70000</v>
       </c>
       <c r="O31" s="2"/>
     </row>
@@ -6266,7 +8608,7 @@
       </c>
       <c r="K32" s="95">
         <f>SUM(K31,-K33)</f>
-        <v>69739.23000000004</v>
+        <v>28551.229999999981</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="97" t="s">
@@ -6274,7 +8616,7 @@
       </c>
       <c r="N32" s="98">
         <f>SUM(N31,-K32)</f>
-        <v>85560.76999999996</v>
+        <v>41448.770000000019</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -6301,25 +8643,23 @@
       </c>
       <c r="K33" s="96">
         <f>SUM(D12,D29)</f>
-        <v>290760.76999999996</v>
+        <v>253948.77000000002</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="23">
         <f>SUM(B34:C34)</f>
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="B34" s="25">
         <v>0</v>
       </c>
       <c r="C34" s="27">
         <f>SUM(D34:R34)</f>
-        <v>18000</v>
-      </c>
-      <c r="D34" s="30">
-        <v>18000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="G34" s="31"/>
@@ -6332,9 +8672,7 @@
       <c r="A35" s="23"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="108">
-        <v>43032</v>
-      </c>
+      <c r="D35" s="29"/>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
@@ -6345,14 +8683,14 @@
     <row r="36" spans="1:14">
       <c r="A36" s="23">
         <f>SUM(B36:C36)</f>
-        <v>78000</v>
+        <v>60000</v>
       </c>
       <c r="B36" s="25">
         <v>0</v>
       </c>
       <c r="C36" s="51">
         <f>SUM(D36:R36)</f>
-        <v>78000</v>
+        <v>60000</v>
       </c>
       <c r="D36" s="31">
         <v>30000</v>
@@ -6363,9 +8701,7 @@
       <c r="F36" s="30">
         <v>10000</v>
       </c>
-      <c r="G36" s="30">
-        <v>18000</v>
-      </c>
+      <c r="G36" s="30"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
       <c r="J36" s="60"/>
@@ -6384,9 +8720,7 @@
       <c r="F37" s="106">
         <v>43116</v>
       </c>
-      <c r="G37" s="108">
-        <v>43029</v>
-      </c>
+      <c r="G37" s="108"/>
       <c r="H37" s="108"/>
       <c r="I37" s="29"/>
     </row>
@@ -6414,7 +8748,7 @@
     <row r="39" spans="1:14">
       <c r="A39" s="21">
         <f>SUM(A34,A36,A38)</f>
-        <v>106000</v>
+        <v>70000</v>
       </c>
       <c r="B39" s="25">
         <f>SUM(B34,B36,B38)</f>
@@ -6422,9 +8756,11 @@
       </c>
       <c r="C39" s="25">
         <f>SUM(C34,C36,C38)</f>
-        <v>106000</v>
-      </c>
-      <c r="D39" s="41"/>
+        <v>70000</v>
+      </c>
+      <c r="D39" s="106">
+        <v>43275</v>
+      </c>
       <c r="E39" s="41"/>
       <c r="F39" s="29"/>
       <c r="G39" s="25"/>
@@ -6439,11 +8775,9 @@
         <v>82</v>
       </c>
       <c r="E40" s="102">
-        <v>20180612</v>
-      </c>
-      <c r="F40" s="102">
         <v>20180624</v>
       </c>
+      <c r="F40" s="102"/>
       <c r="G40" s="90"/>
       <c r="I40" s="2"/>
     </row>
@@ -6482,10 +8816,10 @@
     <row r="43" spans="1:14">
       <c r="A43" s="23">
         <f>SUM(B43:C43)</f>
-        <v>49300</v>
+        <v>0</v>
       </c>
       <c r="B43" s="25">
-        <v>49300</v>
+        <v>0</v>
       </c>
       <c r="C43" s="27">
         <f>SUM(D43:U43)</f>
@@ -6514,7 +8848,9 @@
         <f>SUM(B45:C45)</f>
         <v>0</v>
       </c>
-      <c r="B45" s="25"/>
+      <c r="B45" s="25">
+        <v>0</v>
+      </c>
       <c r="C45" s="27">
         <f>SUM(D45:U45)</f>
         <v>0</v>
@@ -6559,11 +8895,11 @@
     <row r="48" spans="1:14">
       <c r="A48" s="24">
         <f>SUM(A43,A45,A47)</f>
-        <v>49300</v>
+        <v>0</v>
       </c>
       <c r="B48" s="25">
         <f>SUM(B43,B45,B47)</f>
-        <v>49300</v>
+        <v>0</v>
       </c>
       <c r="C48" s="25">
         <f>SUM(C43,C45,C47)</f>
@@ -6703,10 +9039,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B60" s="102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" s="90"/>
     </row>
@@ -17077,10 +19413,10 @@
         <v>141</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R4" s="34">
         <v>726</v>
@@ -17089,17 +19425,17 @@
         <v>35</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U4" s="34"/>
       <c r="V4" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="W4" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="W4" s="34" t="s">
-        <v>156</v>
-      </c>
       <c r="X4" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y4" s="34">
         <v>2</v>
@@ -17111,7 +19447,7 @@
         <v>3</v>
       </c>
       <c r="AB4" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC4" s="56">
         <v>2</v>
@@ -17503,13 +19839,13 @@
         <v>134</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M10" s="78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N10" s="78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O10" s="78"/>
       <c r="P10" s="78"/>
@@ -18025,7 +20361,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="32">
         <v>8.17</v>
@@ -18035,40 +20371,40 @@
       <c r="E18" s="4"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I18" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="K18" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="34" t="s">
         <v>152</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>153</v>
       </c>
       <c r="M18" s="34">
         <v>727</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="4"/>
@@ -18209,16 +20545,16 @@
         <v>35</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K20" s="34">
         <v>2</v>
@@ -18227,13 +20563,13 @@
         <v>3</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="P20" s="4">
         <v>3</v>
@@ -18362,13 +20698,13 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I22" s="78"/>
       <c r="J22" s="34"/>
@@ -18502,19 +20838,19 @@
         <v>20</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="34" t="s">
-        <v>154</v>
-      </c>
       <c r="J24" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="4"/>
@@ -18648,10 +20984,10 @@
         <v>35</v>
       </c>
       <c r="G26" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>153</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>154</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -18794,7 +21130,7 @@
       </c>
       <c r="F28" s="45"/>
       <c r="G28" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
@@ -19080,7 +21416,7 @@
         <v>42978</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="26"/>
@@ -19646,22 +21982,22 @@
         <v>1</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="34">
         <v>3</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="34" t="s">
-        <v>173</v>
-      </c>
       <c r="L4" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4" s="34"/>
       <c r="N4" s="34">
@@ -19795,16 +22131,16 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="I6" s="34" t="s">
         <v>175</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>176</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="34"/>
@@ -19927,7 +22263,7 @@
       <c r="D8" s="15"/>
       <c r="E8" s="4"/>
       <c r="F8" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -20063,19 +22399,19 @@
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
       <c r="F10" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>169</v>
-      </c>
       <c r="H10" s="78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>174</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>175</v>
       </c>
       <c r="K10" s="78"/>
       <c r="L10" s="78"/>
@@ -20597,7 +22933,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="32">
         <v>8.17</v>
@@ -20607,40 +22943,40 @@
       <c r="E18" s="4"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I18" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="K18" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="34" t="s">
         <v>152</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>153</v>
       </c>
       <c r="M18" s="34">
         <v>727</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S18" s="33">
         <v>810</v>
@@ -20787,16 +23123,16 @@
         <v>35</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K20" s="34">
         <v>2</v>
@@ -20805,19 +23141,19 @@
         <v>3</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="P20" s="4">
         <v>3</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R20" s="4">
         <v>2</v>
@@ -20942,13 +23278,13 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I22" s="78"/>
       <c r="J22" s="34"/>
@@ -21080,19 +23416,19 @@
         <v>20</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="34" t="s">
-        <v>154</v>
-      </c>
       <c r="J24" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="4"/>
@@ -21224,10 +23560,10 @@
         <v>35</v>
       </c>
       <c r="G26" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>153</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>154</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -21368,7 +23704,7 @@
       </c>
       <c r="F28" s="45"/>
       <c r="G28" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
@@ -21654,7 +23990,7 @@
         <v>42978</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="26"/>
@@ -22210,22 +24546,22 @@
         <v>1</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="34">
         <v>3</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="34" t="s">
-        <v>173</v>
-      </c>
       <c r="L4" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
@@ -22347,25 +24683,25 @@
         <v>28</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="I6" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>176</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
@@ -22487,7 +24823,7 @@
       <c r="D8" s="15"/>
       <c r="E8" s="4"/>
       <c r="F8" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -22619,19 +24955,19 @@
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
       <c r="F10" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>169</v>
-      </c>
       <c r="H10" s="78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>174</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>175</v>
       </c>
       <c r="K10" s="78"/>
       <c r="L10" s="78"/>
@@ -22742,7 +25078,7 @@
     </row>
     <row r="12" spans="1:52" s="10" customFormat="1">
       <c r="A12" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="12">
         <f>SUM(B3,B5,B7,B9,B11)</f>
@@ -23131,7 +25467,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="32">
         <v>9.17</v>
@@ -23140,13 +25476,13 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G18" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>190</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>191</v>
       </c>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
@@ -23297,13 +25633,13 @@
         <v>35</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J20" s="34">
         <v>2</v>
@@ -23312,16 +25648,16 @@
         <v>3</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N20" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="P20" s="4">
         <v>3</v>
@@ -23442,10 +25778,10 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="78"/>
@@ -23580,19 +25916,19 @@
         <v>20</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I24" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="34" t="s">
         <v>190</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>191</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="4"/>
@@ -23723,13 +26059,13 @@
         <v>40</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -23848,21 +26184,21 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="21">
         <v>9.15</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="127">
   <si>
     <t>额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>加油</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>拉12.6</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -494,6 +490,54 @@
   </si>
   <si>
     <t>返现利息..</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.27白</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号加油</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>临额3.20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.3.0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1230酒店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1230服装</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1230服装积分?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1白三笔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5211五金1.1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11美容院</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd1.2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1461,8 +1505,8 @@
   <dimension ref="A1:AZ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1619,11 +1663,11 @@
       <c r="C3" s="3"/>
       <c r="D3" s="9">
         <f>B3-C3-E3</f>
-        <v>82665.5</v>
+        <v>82360.5</v>
       </c>
       <c r="E3" s="8">
         <f>SUM(F3:BE3)</f>
-        <v>31334.5</v>
+        <v>31639.5</v>
       </c>
       <c r="F3" s="46">
         <v>6320</v>
@@ -1646,8 +1690,12 @@
       <c r="L3" s="33">
         <v>7630</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="M3" s="33">
+        <v>250</v>
+      </c>
+      <c r="N3" s="33">
+        <v>55</v>
+      </c>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
@@ -1696,26 +1744,30 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="34" t="s">
-        <v>110</v>
-      </c>
       <c r="K4" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4" s="34">
         <v>12.15</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="M4" s="34">
+        <v>12.27</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>121</v>
+      </c>
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
@@ -1760,16 +1812,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="4">
-        <v>48000</v>
+        <v>39000</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="9">
         <f>B5-C5-E5</f>
-        <v>23582.400000000001</v>
+        <v>14572.400000000001</v>
       </c>
       <c r="E5" s="8">
         <f>SUM(F5:BE5)</f>
-        <v>24417.599999999999</v>
+        <v>24427.599999999999</v>
       </c>
       <c r="F5" s="33">
         <v>2000</v>
@@ -1783,12 +1835,14 @@
       <c r="I5" s="36">
         <v>5937.6</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36">
+        <v>10</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
@@ -1831,9 +1885,7 @@
       <c r="A6" s="15">
         <v>28</v>
       </c>
-      <c r="B6" s="15">
-        <v>12.28</v>
-      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1841,14 +1893,16 @@
         <v>12.11</v>
       </c>
       <c r="G6" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>111</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>112</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="34"/>
+      <c r="K6" s="34" t="s">
+        <v>122</v>
+      </c>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
@@ -2023,11 +2077,11 @@
       <c r="C9" s="4"/>
       <c r="D9" s="9">
         <f>B9-C9-E9</f>
-        <v>9532.4</v>
+        <v>9452.4</v>
       </c>
       <c r="E9" s="8">
         <f>SUM(F9:BE9)</f>
-        <v>7467.6</v>
+        <v>7547.6</v>
       </c>
       <c r="F9" s="46">
         <v>2000</v>
@@ -2041,8 +2095,12 @@
       <c r="I9" s="34">
         <v>5000</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="J9" s="34">
+        <v>60</v>
+      </c>
+      <c r="K9" s="34">
+        <v>20</v>
+      </c>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
@@ -2155,13 +2213,15 @@
       <c r="C11" s="78"/>
       <c r="D11" s="78">
         <f>B11-C11-E11</f>
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="E11" s="79">
         <f>SUM(F11:BE11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="80"/>
+        <v>180</v>
+      </c>
+      <c r="F11" s="80">
+        <v>180</v>
+      </c>
       <c r="G11" s="80"/>
       <c r="H11" s="80"/>
       <c r="I11" s="80"/>
@@ -2210,12 +2270,10 @@
       <c r="AZ11" s="23"/>
     </row>
     <row r="12" spans="1:52" s="10" customFormat="1">
-      <c r="A12" s="18" t="s">
-        <v>68</v>
-      </c>
+      <c r="A12" s="18"/>
       <c r="B12" s="12">
         <f>SUM(B3,B5,B7,B9,B11)</f>
-        <v>179500</v>
+        <v>170500</v>
       </c>
       <c r="C12" s="76">
         <f>SUM(C3,C5,C7,C9,C11)</f>
@@ -2223,11 +2281,11 @@
       </c>
       <c r="D12" s="7">
         <f>SUM(D3,D5,D7,D9,D11)</f>
-        <v>115780.29999999999</v>
+        <v>106205.29999999999</v>
       </c>
       <c r="E12" s="7">
         <f>SUM(E3,E5,E7,E9,E11)</f>
-        <v>63219.7</v>
+        <v>63794.7</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -2297,10 +2355,10 @@
       <c r="G13" s="94"/>
       <c r="H13" s="94"/>
       <c r="I13" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="107" t="s">
         <v>105</v>
-      </c>
-      <c r="J13" s="107" t="s">
-        <v>106</v>
       </c>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
@@ -2405,29 +2463,44 @@
     </row>
     <row r="15" spans="1:52" s="2" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="8">
         <f>B15-C15-E15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="3"/>
+        <v>6524.1100000000006</v>
+      </c>
+      <c r="E15" s="8">
+        <f>SUM(F15:BE15)</f>
+        <v>8475.89</v>
+      </c>
+      <c r="F15" s="33">
+        <v>7500</v>
+      </c>
+      <c r="G15" s="33">
+        <v>235.5</v>
+      </c>
+      <c r="H15" s="36">
+        <v>181</v>
+      </c>
+      <c r="I15" s="36">
+        <v>55</v>
+      </c>
+      <c r="J15" s="36">
+        <v>15.5</v>
+      </c>
+      <c r="K15" s="36">
+        <v>488.89</v>
+      </c>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2466,16 +2539,22 @@
     </row>
     <row r="16" spans="1:52" s="2" customFormat="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="32">
+        <v>1.7</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="56"/>
+      <c r="F16" s="34" t="s">
+        <v>120</v>
+      </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
-      <c r="K16" s="51"/>
+      <c r="K16" s="51" t="s">
+        <v>126</v>
+      </c>
       <c r="L16" s="51"/>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -2532,11 +2611,11 @@
       </c>
       <c r="D17" s="57">
         <f>B17-C17-E17</f>
-        <v>70931.5</v>
+        <v>26173.399999999994</v>
       </c>
       <c r="E17" s="9">
         <f>SUM(F17:BE17)</f>
-        <v>13436.2</v>
+        <v>58194.3</v>
       </c>
       <c r="F17" s="34">
         <v>8936.2000000000007</v>
@@ -2544,16 +2623,36 @@
       <c r="G17" s="34">
         <v>4500</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="34"/>
+      <c r="H17" s="34">
+        <v>6300</v>
+      </c>
+      <c r="I17" s="34">
+        <v>5560</v>
+      </c>
+      <c r="J17" s="34">
+        <v>793.8</v>
+      </c>
+      <c r="K17" s="34">
+        <v>502.3</v>
+      </c>
+      <c r="L17" s="34">
+        <v>7536.5</v>
+      </c>
+      <c r="M17" s="34">
+        <v>9880</v>
+      </c>
+      <c r="N17" s="34">
+        <v>7500</v>
+      </c>
+      <c r="O17" s="34">
+        <v>650</v>
+      </c>
+      <c r="P17" s="33">
+        <v>2535.5</v>
+      </c>
+      <c r="Q17" s="34">
+        <v>3500</v>
+      </c>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="4"/>
@@ -2592,7 +2691,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="101" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B18" s="32">
         <v>1.17</v>
@@ -2613,19 +2712,35 @@
         <v>4</v>
       </c>
       <c r="J18" s="34">
+        <v>12.27</v>
+      </c>
+      <c r="K18" s="34">
         <v>5</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="L18" s="34">
+        <v>5</v>
+      </c>
+      <c r="M18" s="34">
+        <v>12.28</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" s="34">
+        <v>1</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="R18" s="34">
+        <v>4</v>
+      </c>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
@@ -2670,11 +2785,11 @@
       </c>
       <c r="D19" s="9">
         <f>B19-C19-E19</f>
-        <v>2846.2999999999993</v>
+        <v>1301.2999999999993</v>
       </c>
       <c r="E19" s="9">
         <f>SUM(F19:BE19)</f>
-        <v>6998</v>
+        <v>8543</v>
       </c>
       <c r="F19" s="34">
         <v>5368</v>
@@ -2682,10 +2797,18 @@
       <c r="G19" s="34">
         <v>1630</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="H19" s="34">
+        <v>598</v>
+      </c>
+      <c r="I19" s="34">
+        <v>135</v>
+      </c>
+      <c r="J19" s="34">
+        <v>200</v>
+      </c>
+      <c r="K19" s="34">
+        <v>612</v>
+      </c>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="15"/>
@@ -2747,9 +2870,15 @@
         <v>12.25</v>
       </c>
       <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="I20" s="34">
+        <v>12.27</v>
+      </c>
+      <c r="J20" s="34">
+        <v>12.27</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>123</v>
+      </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="4"/>
@@ -2804,17 +2933,21 @@
       </c>
       <c r="D21" s="9">
         <f>B21-C21-E21</f>
-        <v>1976.7200000000003</v>
+        <v>328.22000000000025</v>
       </c>
       <c r="E21" s="8">
         <f>SUM(F21:BE21)</f>
-        <v>6000</v>
+        <v>7648.5</v>
       </c>
       <c r="F21" s="34">
         <v>6000</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="34">
+        <v>1568.5</v>
+      </c>
+      <c r="H21" s="35">
+        <v>80</v>
+      </c>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
@@ -2871,7 +3004,9 @@
       <c r="F22" s="34">
         <v>12.25</v>
       </c>
-      <c r="G22" s="34"/>
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
       <c r="H22" s="34"/>
       <c r="I22" s="72"/>
       <c r="J22" s="34"/>
@@ -2930,18 +3065,30 @@
       </c>
       <c r="D23" s="9">
         <f>B23-C23-E23</f>
-        <v>25842.260000000002</v>
+        <v>10087.440000000004</v>
       </c>
       <c r="E23" s="9">
         <f>SUM(F23:BE23)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+        <v>15754.819999999998</v>
+      </c>
+      <c r="F23" s="34">
+        <v>2530</v>
+      </c>
+      <c r="G23" s="34">
+        <v>7862.3</v>
+      </c>
+      <c r="H23" s="34">
+        <v>3560</v>
+      </c>
+      <c r="I23" s="34">
+        <v>865.3</v>
+      </c>
+      <c r="J23" s="34">
+        <v>880</v>
+      </c>
+      <c r="K23" s="34">
+        <v>57.22</v>
+      </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
@@ -2986,18 +3133,28 @@
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="6"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="C24" s="83"/>
       <c r="D24" s="4"/>
       <c r="E24" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="F24" s="34">
+        <v>12.26</v>
+      </c>
+      <c r="G24" s="34">
+        <v>12.26</v>
+      </c>
+      <c r="H24" s="34">
+        <v>12.27</v>
+      </c>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="K24" s="34" t="s">
+        <v>122</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
@@ -3051,17 +3208,21 @@
       <c r="C25" s="3"/>
       <c r="D25" s="9">
         <f>B25-C25-E25</f>
-        <v>19820</v>
+        <v>9142</v>
       </c>
       <c r="E25" s="9">
         <f>SUM(F25:BE25)</f>
-        <v>180</v>
+        <v>10858</v>
       </c>
       <c r="F25" s="34">
-        <v>180</v>
-      </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+        <v>7500</v>
+      </c>
+      <c r="G25" s="34">
+        <v>2358</v>
+      </c>
+      <c r="H25" s="34">
+        <v>1000</v>
+      </c>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
@@ -3111,17 +3272,21 @@
       <c r="A26" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="15">
-        <v>11.14</v>
-      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="32"/>
       <c r="D26" s="4"/>
       <c r="E26" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="F26" s="34">
+        <v>12.26</v>
+      </c>
+      <c r="G26" s="34">
+        <v>12.26</v>
+      </c>
+      <c r="H26" s="34">
+        <v>12.27</v>
+      </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
@@ -3172,21 +3337,31 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>16000</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>12000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4620.93</v>
+      </c>
       <c r="D27" s="9">
         <f>B27-C27-E27</f>
-        <v>16000</v>
+        <v>1564.0699999999997</v>
       </c>
       <c r="E27" s="9">
         <f>SUM(F27:BE27)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="34"/>
+        <v>5815</v>
+      </c>
+      <c r="F27" s="34">
+        <v>3590</v>
+      </c>
+      <c r="G27" s="34">
+        <v>1105</v>
+      </c>
+      <c r="H27" s="34">
+        <v>70</v>
+      </c>
+      <c r="I27" s="34">
+        <v>1050</v>
+      </c>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
@@ -3236,21 +3411,23 @@
         <v>76</v>
       </c>
       <c r="B28" s="21">
-        <v>9.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="34">
-        <v>3564.87</v>
-      </c>
-      <c r="G28" s="34">
-        <v>1000</v>
+      <c r="F28" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="I28" s="34"/>
+      <c r="I28" s="34">
+        <v>50</v>
+      </c>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
@@ -3301,25 +3478,25 @@
       </c>
       <c r="B29" s="13">
         <f>SUM(B15,B17,B19,B21,B23,B25,B27)</f>
-        <v>214000</v>
+        <v>225000</v>
       </c>
       <c r="C29" s="19">
         <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>49969.02</v>
+        <v>54589.95</v>
       </c>
       <c r="D29" s="11">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>137416.78</v>
+        <v>55120.54</v>
       </c>
       <c r="E29" s="11">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>26614.2</v>
+        <v>115289.51</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44" t="s">
+        <v>116</v>
+      </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
@@ -3393,7 +3570,12 @@
       <c r="B31" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <v>850</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3770.93</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="52"/>
       <c r="G31" s="60"/>
@@ -3404,7 +3586,7 @@
       </c>
       <c r="K31" s="90">
         <f>SUM(B12,B29)</f>
-        <v>393500</v>
+        <v>395500</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="69" t="s">
@@ -3412,7 +3594,7 @@
       </c>
       <c r="N31" s="90">
         <f>SUM(A39,A48,A58)</f>
-        <v>162700</v>
+        <v>243000</v>
       </c>
       <c r="O31" s="2"/>
     </row>
@@ -3426,7 +3608,7 @@
       </c>
       <c r="K32" s="89">
         <f>SUM(K31,-K33)</f>
-        <v>140302.92000000001</v>
+        <v>234174.16</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="91" t="s">
@@ -3434,7 +3616,7 @@
       </c>
       <c r="N32" s="92">
         <f>SUM(N31,-K32)</f>
-        <v>22397.079999999987</v>
+        <v>8825.8399999999965</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -3461,7 +3643,7 @@
       </c>
       <c r="K33" s="90">
         <f>SUM(D12,D29)</f>
-        <v>253197.08</v>
+        <v>161325.84</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -3634,10 +3816,10 @@
     <row r="43" spans="1:14">
       <c r="A43" s="23">
         <f>SUM(B43:C43)</f>
-        <v>64700</v>
+        <v>137000</v>
       </c>
       <c r="B43" s="25">
-        <v>64700</v>
+        <v>137000</v>
       </c>
       <c r="C43" s="27">
         <f>SUM(D43:U43)</f>
@@ -3713,11 +3895,11 @@
     <row r="48" spans="1:14">
       <c r="A48" s="24">
         <f>SUM(A43,A45,A47)</f>
-        <v>64700</v>
+        <v>137000</v>
       </c>
       <c r="B48" s="25">
         <f>SUM(B43,B45,B47)</f>
-        <v>64700</v>
+        <v>137000</v>
       </c>
       <c r="C48" s="25">
         <f>SUM(C43,C45,C47)</f>
@@ -3732,7 +3914,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="109">
         <v>3000</v>
@@ -3841,14 +4023,14 @@
     <row r="57" spans="1:12">
       <c r="A57" s="23">
         <f>SUM(B57:C57)</f>
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="B57" s="25">
         <v>0</v>
       </c>
       <c r="C57" s="27">
         <f>SUM(D57:U57)</f>
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="D57" s="31">
         <v>5000</v>
@@ -3859,14 +4041,16 @@
       <c r="F57" s="31">
         <v>8000</v>
       </c>
-      <c r="G57" s="31"/>
+      <c r="G57" s="31">
+        <v>8000</v>
+      </c>
       <c r="H57" s="31"/>
       <c r="I57" s="31"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="24">
         <f>SUM(A53,A55,A57)</f>
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="B58" s="25">
         <f>SUM(B53,B55,B57)</f>
@@ -3874,7 +4058,7 @@
       </c>
       <c r="C58" s="25">
         <f>SUM(C53,C55,C57)</f>
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="D58" s="29">
         <v>42815</v>
@@ -3885,7 +4069,9 @@
       <c r="F58" s="29">
         <v>42791</v>
       </c>
-      <c r="G58" s="29"/>
+      <c r="G58" s="29">
+        <v>42745</v>
+      </c>
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
     </row>
@@ -3907,7 +4093,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="1">
         <f>SUM(D63:AC64)</f>
@@ -3972,24 +4158,24 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="67">
         <f>SUM(C68:Z80)</f>
-        <v>35647.4</v>
+        <v>112897.1</v>
       </c>
       <c r="C68" s="14">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="D68" s="14">
         <v>102.3</v>
@@ -4001,7 +4187,7 @@
         <v>171.6</v>
       </c>
       <c r="G68" s="14">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="H68" s="14">
         <v>192</v>
@@ -4010,16 +4196,16 @@
         <v>180</v>
       </c>
       <c r="J68" s="14">
-        <v>172</v>
+        <v>674.3</v>
       </c>
       <c r="K68" s="14">
-        <v>7630</v>
+        <v>7690</v>
       </c>
       <c r="L68" s="14">
         <v>8936.2000000000007</v>
       </c>
       <c r="M68" s="14">
-        <v>6000</v>
+        <v>6080</v>
       </c>
       <c r="N68" s="14">
         <v>5368</v>
@@ -4030,25 +4216,59 @@
       <c r="P68" s="14">
         <v>1630</v>
       </c>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14"/>
-      <c r="V68" s="14"/>
-      <c r="W68" s="14"/>
-      <c r="X68" s="14"/>
-      <c r="Y68" s="14"/>
-      <c r="Z68" s="14"/>
+      <c r="Q68" s="14">
+        <v>6300</v>
+      </c>
+      <c r="R68" s="14">
+        <v>598</v>
+      </c>
+      <c r="S68" s="14">
+        <v>1568.5</v>
+      </c>
+      <c r="T68" s="14">
+        <v>2530</v>
+      </c>
+      <c r="U68" s="14">
+        <v>5560</v>
+      </c>
+      <c r="V68" s="14">
+        <v>7862.3</v>
+      </c>
+      <c r="W68" s="14">
+        <v>2358</v>
+      </c>
+      <c r="X68" s="14">
+        <v>793.8</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>3590</v>
+      </c>
+      <c r="Z68" s="14">
+        <v>3560</v>
+      </c>
     </row>
     <row r="69" spans="1:26">
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
+      <c r="C69" s="14">
+        <v>1105</v>
+      </c>
+      <c r="D69" s="14">
+        <v>7536.5</v>
+      </c>
+      <c r="E69" s="14">
+        <v>865.3</v>
+      </c>
+      <c r="F69" s="14">
+        <v>9880</v>
+      </c>
+      <c r="G69" s="14">
+        <v>15000</v>
+      </c>
+      <c r="H69" s="14">
+        <v>1050</v>
+      </c>
+      <c r="I69" s="14">
+        <v>6000</v>
+      </c>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
@@ -12016,20 +12236,20 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>53</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4" s="34">
         <v>12.15</v>
@@ -12161,10 +12381,10 @@
         <v>12.11</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="4"/>
@@ -12617,10 +12837,10 @@
       <c r="G13" s="94"/>
       <c r="H13" s="94"/>
       <c r="I13" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="107" t="s">
         <v>105</v>
-      </c>
-      <c r="J13" s="107" t="s">
-        <v>106</v>
       </c>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
@@ -12924,7 +13144,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="32">
         <v>11.15</v>
@@ -12933,13 +13153,13 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="H18" s="34" t="s">
         <v>98</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>99</v>
       </c>
       <c r="I18" s="34">
         <v>1</v>
@@ -13094,7 +13314,7 @@
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
@@ -13213,7 +13433,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
@@ -13341,10 +13561,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>100</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>101</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -14084,7 +14304,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="109">
         <v>3000</v>
@@ -14317,17 +14537,17 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="67">
         <f>SUM(C68:Z80)</f>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -1835,8 +1835,8 @@
   <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1989,11 +1989,11 @@
       </c>
       <c r="D3" s="115">
         <f>B3-C3-E3</f>
-        <v>104968.23999999999</v>
+        <v>104218.23999999999</v>
       </c>
       <c r="E3" s="116">
         <f>SUM(F3:BE3)</f>
-        <v>3258.1</v>
+        <v>4008.1</v>
       </c>
       <c r="F3" s="117">
         <v>300</v>
@@ -2019,7 +2019,9 @@
       <c r="M3" s="117">
         <v>300</v>
       </c>
-      <c r="N3" s="117"/>
+      <c r="N3" s="117">
+        <v>750</v>
+      </c>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
       <c r="Q3" s="117"/>
@@ -2585,11 +2587,11 @@
       </c>
       <c r="D12" s="7">
         <f>SUM(D3,D5,D7,D9,D11)</f>
-        <v>181758.73</v>
+        <v>181008.73</v>
       </c>
       <c r="E12" s="7">
         <f>SUM(E3,E5,E7,E9,E11)</f>
-        <v>5563</v>
+        <v>6313</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>84</v>
@@ -3056,11 +3058,11 @@
       <c r="C19" s="116"/>
       <c r="D19" s="116">
         <f>B19-C19-E19</f>
-        <v>9802.75</v>
+        <v>9478.99</v>
       </c>
       <c r="E19" s="116">
         <f>SUM(F19:BE19)</f>
-        <v>5197.25</v>
+        <v>5521.01</v>
       </c>
       <c r="F19" s="117">
         <v>3628.59</v>
@@ -3098,7 +3100,9 @@
       <c r="Q19" s="120">
         <v>24.88</v>
       </c>
-      <c r="R19" s="116"/>
+      <c r="R19" s="116">
+        <v>323.76</v>
+      </c>
       <c r="S19" s="116"/>
       <c r="T19" s="116"/>
       <c r="U19" s="116"/>
@@ -3752,11 +3756,11 @@
       </c>
       <c r="D29" s="11">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>115453.65</v>
+        <v>115129.89</v>
       </c>
       <c r="E29" s="11">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>18156.349999999999</v>
+        <v>18480.11</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -3873,7 +3877,7 @@
       </c>
       <c r="K32" s="84">
         <f>SUM(K31,-K33)</f>
-        <v>67787.62</v>
+        <v>68861.38</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="86" t="s">
@@ -3881,7 +3885,7 @@
       </c>
       <c r="N32" s="87">
         <f>SUM(N31,-K32)</f>
-        <v>146111.38</v>
+        <v>145037.62</v>
       </c>
       <c r="P32" s="2"/>
       <c r="R32"/>
@@ -3909,7 +3913,7 @@
       </c>
       <c r="K33" s="85">
         <f>SUM(D12,D29)</f>
-        <v>297212.38</v>
+        <v>296138.62</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -21734,7 +21738,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22925,11 +22929,11 @@
       </c>
       <c r="D19" s="116">
         <f>B19-C19-E19</f>
-        <v>2927.8499999999995</v>
+        <v>2901.95</v>
       </c>
       <c r="E19" s="116">
         <f>SUM(F19:BE19)</f>
-        <v>4535.59</v>
+        <v>4561.49</v>
       </c>
       <c r="F19" s="117">
         <v>3628.59</v>
@@ -22943,7 +22947,9 @@
       <c r="I19" s="120">
         <v>351</v>
       </c>
-      <c r="J19" s="120"/>
+      <c r="J19" s="120">
+        <v>25.9</v>
+      </c>
       <c r="K19" s="120"/>
       <c r="L19" s="120"/>
       <c r="M19" s="120"/>
@@ -23613,11 +23619,11 @@
       </c>
       <c r="D29" s="11">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>97903.930000000008</v>
+        <v>97878.03</v>
       </c>
       <c r="E29" s="11">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>15913.19</v>
+        <v>15939.09</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -23736,7 +23742,7 @@
       </c>
       <c r="K32" s="84">
         <f>SUM(K31,-K33)</f>
-        <v>80403.469999999972</v>
+        <v>80429.37</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="86" t="s">
@@ -23744,7 +23750,7 @@
       </c>
       <c r="N32" s="87">
         <f>SUM(N31,-K32)</f>
-        <v>178195.53000000003</v>
+        <v>178169.63</v>
       </c>
       <c r="P32" s="2"/>
       <c r="R32"/>
@@ -23772,7 +23778,7 @@
       </c>
       <c r="K33" s="85">
         <f>SUM(D12,D29)</f>
-        <v>284596.53000000003</v>
+        <v>284570.63</v>
       </c>
       <c r="L33" s="2"/>
     </row>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="164">
   <si>
     <t>额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,6 +667,14 @@
   </si>
   <si>
     <t>本月车车13</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1836,7 +1844,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2774,22 +2782,22 @@
         <v>123</v>
       </c>
       <c r="B15" s="115">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="C15" s="116">
         <f>SUM(D16,E16)</f>
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="D15" s="125">
         <f>B15-C15-E15</f>
-        <v>0</v>
+        <v>26937.05</v>
       </c>
       <c r="E15" s="115">
         <f>SUM(F15:BE15)</f>
-        <v>0</v>
+        <v>62.95</v>
       </c>
       <c r="F15" s="122">
-        <v>0</v>
+        <v>62.95</v>
       </c>
       <c r="G15" s="122">
         <v>0</v>
@@ -2849,16 +2857,16 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="97">
-        <v>10063</v>
+        <v>0</v>
       </c>
       <c r="E16" s="97">
-        <v>26937</v>
+        <v>0</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
@@ -3748,19 +3756,19 @@
       </c>
       <c r="B29" s="13">
         <f>SUM(B15,B17,B19,B21,B23,B25,B27)</f>
-        <v>170610</v>
+        <v>160610</v>
       </c>
       <c r="C29" s="19">
         <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="D29" s="11">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>115129.89</v>
+        <v>142066.94</v>
       </c>
       <c r="E29" s="11">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>18480.11</v>
+        <v>18543.059999999998</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -3856,7 +3864,7 @@
       </c>
       <c r="K31" s="85">
         <f>SUM(B12,B29)</f>
-        <v>365000</v>
+        <v>355000</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="69" t="s">
@@ -3864,7 +3872,7 @@
       </c>
       <c r="N31" s="85">
         <f>SUM(A39,A48,A58)</f>
-        <v>213899</v>
+        <v>176999</v>
       </c>
       <c r="O31" s="2"/>
     </row>
@@ -3877,7 +3885,7 @@
       </c>
       <c r="K32" s="84">
         <f>SUM(K31,-K33)</f>
-        <v>68861.38</v>
+        <v>31924.329999999958</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="86" t="s">
@@ -3885,7 +3893,7 @@
       </c>
       <c r="N32" s="87">
         <f>SUM(N31,-K32)</f>
-        <v>145037.62</v>
+        <v>145074.67000000004</v>
       </c>
       <c r="P32" s="2"/>
       <c r="R32"/>
@@ -3913,7 +3921,7 @@
       </c>
       <c r="K33" s="85">
         <f>SUM(D12,D29)</f>
-        <v>296138.62</v>
+        <v>323075.67000000004</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -4090,10 +4098,10 @@
     <row r="43" spans="1:16">
       <c r="A43" s="23">
         <f>SUM(B43:C43)</f>
-        <v>156500</v>
+        <v>119600</v>
       </c>
       <c r="B43" s="25">
-        <v>156500</v>
+        <v>119600</v>
       </c>
       <c r="C43" s="27">
         <f>SUM(D43:U43)</f>
@@ -4177,11 +4185,11 @@
     <row r="48" spans="1:16">
       <c r="A48" s="24">
         <f>SUM(A43,A45,A47)</f>
-        <v>157899</v>
+        <v>120999</v>
       </c>
       <c r="B48" s="25">
         <f>SUM(B43,B45,B47)</f>
-        <v>156500</v>
+        <v>119600</v>
       </c>
       <c r="C48" s="25">
         <f>SUM(C43,C45,C47)</f>
@@ -4375,7 +4383,7 @@
       </c>
       <c r="B66" s="67">
         <f>SUM(C66:Z78)</f>
-        <v>708473.5</v>
+        <v>711873.5</v>
       </c>
       <c r="C66" s="14">
         <v>1724</v>
@@ -4863,7 +4871,9 @@
       <c r="P72" s="14">
         <v>865</v>
       </c>
-      <c r="Q72" s="14"/>
+      <c r="Q72" s="14">
+        <v>3400</v>
+      </c>
       <c r="R72" s="14"/>
       <c r="S72" s="14"/>
       <c r="T72" s="14"/>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -1349,6 +1349,49 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>809282</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="13887450"/>
+          <a:ext cx="2742857" cy="723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -1639,8 +1682,8 @@
   <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4143,7 +4186,7 @@
       </c>
       <c r="B66" s="59">
         <f>SUM(C66:Z78)</f>
-        <v>753913.5</v>
+        <v>756612.5</v>
       </c>
       <c r="C66" s="12">
         <v>1724</v>
@@ -4652,8 +4695,12 @@
       <c r="W72" s="12">
         <v>660</v>
       </c>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
+      <c r="X72" s="12">
+        <v>1700</v>
+      </c>
+      <c r="Y72" s="12">
+        <v>999</v>
+      </c>
       <c r="Z72" s="12"/>
     </row>
     <row r="73" spans="1:26">
@@ -4792,6 +4839,7 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -1682,8 +1682,8 @@
   <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2752,12 +2752,10 @@
       <c r="B17" s="115">
         <v>31000</v>
       </c>
-      <c r="C17" s="151">
-        <v>4141.5</v>
-      </c>
+      <c r="C17" s="151"/>
       <c r="D17" s="116">
         <f>B17-C17-E17</f>
-        <v>22683</v>
+        <v>26824.5</v>
       </c>
       <c r="E17" s="115">
         <f>SUM(F17:BE17)</f>
@@ -3555,11 +3553,11 @@
       </c>
       <c r="C29" s="17">
         <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>18135.010000000002</v>
+        <v>13993.51</v>
       </c>
       <c r="D29" s="9">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>106496.19</v>
+        <v>110637.69</v>
       </c>
       <c r="E29" s="9">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
@@ -3682,7 +3680,7 @@
       </c>
       <c r="K32" s="76">
         <f>SUM(K31,-K33)</f>
-        <v>65328.47000000003</v>
+        <v>61186.97000000003</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="78" t="s">
@@ -3690,7 +3688,7 @@
       </c>
       <c r="N32" s="79">
         <f>SUM(N31,-K32)</f>
-        <v>179070.52999999997</v>
+        <v>183212.02999999997</v>
       </c>
       <c r="P32" s="2"/>
       <c r="R32"/>
@@ -3718,7 +3716,7 @@
       </c>
       <c r="K33" s="77">
         <f>SUM(D12,D29)</f>
-        <v>310671.52999999997</v>
+        <v>314813.02999999997</v>
       </c>
       <c r="L33" s="2"/>
     </row>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -1389,6 +1389,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371013</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="13792200"/>
+          <a:ext cx="3695238" cy="1057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180640</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>123733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="13963650"/>
+          <a:ext cx="2676190" cy="733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1682,8 +1758,8 @@
   <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2333,24 +2409,20 @@
       <c r="B11" s="68">
         <v>390</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="68">
+        <v>390</v>
+      </c>
       <c r="D11" s="68">
         <f>B11-C11-E11</f>
         <v>0</v>
       </c>
       <c r="E11" s="69">
         <f>SUM(F11:BE11)</f>
-        <v>390</v>
-      </c>
-      <c r="F11" s="70">
-        <v>100</v>
-      </c>
-      <c r="G11" s="70">
-        <v>120</v>
-      </c>
-      <c r="H11" s="70">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
       <c r="I11" s="70"/>
       <c r="J11" s="70"/>
       <c r="K11" s="70"/>
@@ -2406,7 +2478,7 @@
       </c>
       <c r="C12" s="66">
         <f>SUM(C3,C5,C7,C9,C11)</f>
-        <v>9099.0600000000013</v>
+        <v>9489.0600000000013</v>
       </c>
       <c r="D12" s="6">
         <f>SUM(D3,D5,D7,D9,D11)</f>
@@ -2414,7 +2486,7 @@
       </c>
       <c r="E12" s="6">
         <f>SUM(E3,E5,E7,E9,E11)</f>
-        <v>2115.6</v>
+        <v>1725.6</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>58</v>
@@ -4184,7 +4256,7 @@
       </c>
       <c r="B66" s="59">
         <f>SUM(C66:Z78)</f>
-        <v>756612.5</v>
+        <v>758198.5</v>
       </c>
       <c r="C66" s="12">
         <v>1724</v>
@@ -4699,10 +4771,14 @@
       <c r="Y72" s="12">
         <v>999</v>
       </c>
-      <c r="Z72" s="12"/>
+      <c r="Z72" s="12">
+        <v>800</v>
+      </c>
     </row>
     <row r="73" spans="1:26">
-      <c r="C73" s="12"/>
+      <c r="C73" s="12">
+        <v>786</v>
+      </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="121">
   <si>
     <t>额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +494,14 @@
   </si>
   <si>
     <t>金翼支付</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>足浴</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1353,16 +1361,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>809282</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>38010</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>75370</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1379,8 +1387,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2524125" y="13887450"/>
-          <a:ext cx="2742857" cy="723810"/>
+          <a:off x="1666875" y="5562600"/>
+          <a:ext cx="6638095" cy="4304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1391,20 +1399,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371013</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>104643</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552264</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1417,46 +1425,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5324475" y="13792200"/>
-          <a:ext cx="3695238" cy="1057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180640</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>123733</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8705850" y="13963650"/>
-          <a:ext cx="2676190" cy="733333"/>
+          <a:off x="3867150" y="5734050"/>
+          <a:ext cx="1485714" cy="190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,8 +1728,8 @@
   <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P85" sqref="P85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1912,11 +1882,11 @@
       </c>
       <c r="D3" s="102">
         <f>B3-C3-E3</f>
-        <v>109035.4</v>
+        <v>107650.9</v>
       </c>
       <c r="E3" s="103">
         <f>SUM(F3:BE3)</f>
-        <v>934.6</v>
+        <v>2319.1</v>
       </c>
       <c r="F3" s="104">
         <v>302.60000000000002</v>
@@ -1927,9 +1897,15 @@
       <c r="H3" s="104">
         <v>312</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
+      <c r="I3" s="104">
+        <v>752.5</v>
+      </c>
+      <c r="J3" s="104">
+        <v>300</v>
+      </c>
+      <c r="K3" s="104">
+        <v>332</v>
+      </c>
       <c r="L3" s="104"/>
       <c r="M3" s="104"/>
       <c r="N3" s="104"/>
@@ -2164,18 +2140,30 @@
       </c>
       <c r="D7" s="139">
         <f>B7-C7-E7</f>
-        <v>19429.61</v>
+        <v>17292.810000000001</v>
       </c>
       <c r="E7" s="139">
         <f>SUM(F7:BE7)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
+        <v>2136.8000000000002</v>
+      </c>
+      <c r="F7" s="140">
+        <v>736.8</v>
+      </c>
+      <c r="G7" s="140">
+        <v>600</v>
+      </c>
+      <c r="H7" s="140">
+        <v>202</v>
+      </c>
+      <c r="I7" s="140">
+        <v>326</v>
+      </c>
+      <c r="J7" s="140">
+        <v>86</v>
+      </c>
+      <c r="K7" s="140">
+        <v>186</v>
+      </c>
       <c r="L7" s="140"/>
       <c r="M7" s="140"/>
       <c r="N7" s="140"/>
@@ -2227,8 +2215,12 @@
       <c r="D8" s="13"/>
       <c r="E8" s="4"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>120</v>
+      </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
@@ -2286,11 +2278,11 @@
       </c>
       <c r="D9" s="102">
         <f>B9-C9-E9</f>
-        <v>13954</v>
+        <v>13633.5</v>
       </c>
       <c r="E9" s="103">
         <f>SUM(F9:BE9)</f>
-        <v>791</v>
+        <v>1111.5</v>
       </c>
       <c r="F9" s="104">
         <v>265</v>
@@ -2298,7 +2290,9 @@
       <c r="G9" s="109">
         <v>526</v>
       </c>
-      <c r="H9" s="109"/>
+      <c r="H9" s="109">
+        <v>320.5</v>
+      </c>
       <c r="I9" s="109"/>
       <c r="J9" s="109"/>
       <c r="K9" s="109"/>
@@ -2407,10 +2401,10 @@
         <v>33</v>
       </c>
       <c r="B11" s="68">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="C11" s="68">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D11" s="68">
         <f>B11-C11-E11</f>
@@ -2474,19 +2468,19 @@
       </c>
       <c r="B12" s="10">
         <f>SUM(B3,B5,B7,B9,B11)</f>
-        <v>215390</v>
+        <v>215000</v>
       </c>
       <c r="C12" s="66">
         <f>SUM(C3,C5,C7,C9,C11)</f>
-        <v>9489.0600000000013</v>
+        <v>9099.0600000000013</v>
       </c>
       <c r="D12" s="6">
         <f>SUM(D3,D5,D7,D9,D11)</f>
-        <v>204175.33999999997</v>
+        <v>200333.53999999998</v>
       </c>
       <c r="E12" s="6">
         <f>SUM(E3,E5,E7,E9,E11)</f>
-        <v>1725.6</v>
+        <v>5567.4</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>58</v>
@@ -2960,22 +2954,30 @@
       <c r="B19" s="102">
         <v>15000</v>
       </c>
-      <c r="C19" s="103">
-        <v>5195.91</v>
-      </c>
+      <c r="C19" s="103"/>
       <c r="D19" s="103">
         <f>B19-C19-E19</f>
-        <v>9804.09</v>
+        <v>14571.7</v>
       </c>
       <c r="E19" s="103">
         <f>SUM(F19:BE19)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
+        <v>428.3</v>
+      </c>
+      <c r="F19" s="104">
+        <v>220</v>
+      </c>
+      <c r="G19" s="104">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H19" s="107">
+        <v>50</v>
+      </c>
+      <c r="I19" s="107">
+        <v>62</v>
+      </c>
+      <c r="J19" s="107">
+        <v>21.2</v>
+      </c>
       <c r="K19" s="107"/>
       <c r="L19" s="107"/>
       <c r="M19" s="107"/>
@@ -3087,11 +3089,11 @@
       </c>
       <c r="D21" s="127">
         <f>B21-C21-E21</f>
-        <v>1919.3999999999996</v>
+        <v>1574.3999999999996</v>
       </c>
       <c r="E21" s="128">
         <f>SUM(F21:BE21)</f>
-        <v>5790</v>
+        <v>6135</v>
       </c>
       <c r="F21" s="129">
         <v>3000</v>
@@ -3105,11 +3107,21 @@
       <c r="I21" s="129">
         <v>260</v>
       </c>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
+      <c r="J21" s="129">
+        <v>85</v>
+      </c>
+      <c r="K21" s="129">
+        <v>90</v>
+      </c>
+      <c r="L21" s="129">
+        <v>52</v>
+      </c>
+      <c r="M21" s="129">
+        <v>43</v>
+      </c>
+      <c r="N21" s="129">
+        <v>75</v>
+      </c>
       <c r="O21" s="129"/>
       <c r="P21" s="129"/>
       <c r="Q21" s="129"/>
@@ -3345,14 +3357,12 @@
       </c>
       <c r="B25" s="142">
         <f>SUM(A31,-B11)</f>
-        <v>19610</v>
-      </c>
-      <c r="C25" s="122">
-        <v>805</v>
-      </c>
+        <v>20000</v>
+      </c>
+      <c r="C25" s="122"/>
       <c r="D25" s="121">
         <f>B25-C25-E25</f>
-        <v>17652.400000000001</v>
+        <v>18847.400000000001</v>
       </c>
       <c r="E25" s="121">
         <f>SUM(F25:BE25)</f>
@@ -3491,11 +3501,11 @@
       </c>
       <c r="C27" s="103">
         <f>SUM(F30,G30)</f>
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="D27" s="102">
         <f>B27-C27-E27</f>
-        <v>11490</v>
+        <v>11830</v>
       </c>
       <c r="E27" s="102">
         <f>SUM(F27:BE27)</f>
@@ -3621,19 +3631,19 @@
       </c>
       <c r="B29" s="11">
         <f>SUM(B15,B17,B19,B21,B23,B25,B27)</f>
-        <v>160610</v>
+        <v>161000</v>
       </c>
       <c r="C29" s="17">
         <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>13993.51</v>
+        <v>7652.6</v>
       </c>
       <c r="D29" s="9">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>110637.69</v>
+        <v>116595.29999999999</v>
       </c>
       <c r="E29" s="9">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>35978.799999999996</v>
+        <v>36752.1</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
@@ -3689,10 +3699,10 @@
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="88">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G30" s="88">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
@@ -3752,7 +3762,7 @@
       </c>
       <c r="K32" s="76">
         <f>SUM(K31,-K33)</f>
-        <v>61186.97000000003</v>
+        <v>59071.160000000033</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="78" t="s">
@@ -3760,7 +3770,7 @@
       </c>
       <c r="N32" s="79">
         <f>SUM(N31,-K32)</f>
-        <v>183212.02999999997</v>
+        <v>185327.83999999997</v>
       </c>
       <c r="P32" s="2"/>
       <c r="R32"/>
@@ -3788,7 +3798,7 @@
       </c>
       <c r="K33" s="77">
         <f>SUM(D12,D29)</f>
-        <v>314813.02999999997</v>
+        <v>316928.83999999997</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -4256,7 +4266,7 @@
       </c>
       <c r="B66" s="59">
         <f>SUM(C66:Z78)</f>
-        <v>758198.5</v>
+        <v>762370.5</v>
       </c>
       <c r="C66" s="12">
         <v>1724</v>
@@ -4779,9 +4789,15 @@
       <c r="C73" s="12">
         <v>786</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="D73" s="12">
+        <v>1320</v>
+      </c>
+      <c r="E73" s="12">
+        <v>1052</v>
+      </c>
+      <c r="F73" s="12">
+        <v>1800</v>
+      </c>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -4913,7 +4929,6 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4921,14 +4936,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/信用卡.xlsx
+++ b/data/信用卡.xlsx
@@ -14,13 +14,14 @@
     <sheet name="20180410" sheetId="46" r:id="rId5"/>
     <sheet name="20180424" sheetId="47" r:id="rId6"/>
     <sheet name="20180509" sheetId="48" r:id="rId7"/>
+    <sheet name="20180523" sheetId="49" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="121">
   <si>
     <t>额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,10 +478,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>沃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>加油</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -502,6 +499,10 @@
   </si>
   <si>
     <t>足浴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9笔288</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1725,11 +1726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ79"/>
+  <dimension ref="A1:AZ82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1882,11 +1883,11 @@
       </c>
       <c r="D3" s="102">
         <f>B3-C3-E3</f>
-        <v>107650.9</v>
+        <v>105966.7</v>
       </c>
       <c r="E3" s="103">
         <f>SUM(F3:BE3)</f>
-        <v>2319.1</v>
+        <v>4003.3</v>
       </c>
       <c r="F3" s="104">
         <v>302.60000000000002</v>
@@ -1906,10 +1907,18 @@
       <c r="K3" s="104">
         <v>332</v>
       </c>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
+      <c r="L3" s="104">
+        <v>532.20000000000005</v>
+      </c>
+      <c r="M3" s="104">
+        <v>432.8</v>
+      </c>
+      <c r="N3" s="104">
+        <v>321</v>
+      </c>
+      <c r="O3" s="104">
+        <v>398.2</v>
+      </c>
       <c r="P3" s="104"/>
       <c r="Q3" s="104"/>
       <c r="R3" s="104"/>
@@ -2016,14 +2025,18 @@
       </c>
       <c r="D5" s="121">
         <f>B5-C5-E5</f>
-        <v>61756.33</v>
+        <v>61165.83</v>
       </c>
       <c r="E5" s="122">
         <f>SUM(F5:BE5)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="144"/>
-      <c r="G5" s="145"/>
+        <v>590.5</v>
+      </c>
+      <c r="F5" s="144">
+        <v>288</v>
+      </c>
+      <c r="G5" s="145">
+        <v>302.5</v>
+      </c>
       <c r="H5" s="144"/>
       <c r="I5" s="145"/>
       <c r="J5" s="145"/>
@@ -2080,8 +2093,12 @@
         <v>3000</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="32">
+        <v>5.22</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>120</v>
+      </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="4"/>
@@ -2140,11 +2157,11 @@
       </c>
       <c r="D7" s="139">
         <f>B7-C7-E7</f>
-        <v>17292.810000000001</v>
+        <v>16494.71</v>
       </c>
       <c r="E7" s="139">
         <f>SUM(F7:BE7)</f>
-        <v>2136.8000000000002</v>
+        <v>2934.9000000000005</v>
       </c>
       <c r="F7" s="140">
         <v>736.8</v>
@@ -2164,9 +2181,15 @@
       <c r="K7" s="140">
         <v>186</v>
       </c>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
+      <c r="L7" s="140">
+        <v>235</v>
+      </c>
+      <c r="M7" s="140">
+        <v>210.8</v>
+      </c>
+      <c r="N7" s="140">
+        <v>352.3</v>
+      </c>
       <c r="O7" s="140"/>
       <c r="P7" s="140"/>
       <c r="Q7" s="140"/>
@@ -2216,10 +2239,10 @@
       <c r="E8" s="4"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -2476,11 +2499,11 @@
       </c>
       <c r="D12" s="6">
         <f>SUM(D3,D5,D7,D9,D11)</f>
-        <v>200333.53999999998</v>
+        <v>197260.74</v>
       </c>
       <c r="E12" s="6">
         <f>SUM(E3,E5,E7,E9,E11)</f>
-        <v>5567.4</v>
+        <v>8640.2000000000007</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>58</v>
@@ -2667,40 +2690,24 @@
       </c>
       <c r="C15" s="103">
         <f>SUM(D16,E16)</f>
-        <v>0</v>
+        <v>23545.64</v>
       </c>
       <c r="D15" s="112">
         <f>B15-C15-E15</f>
-        <v>4494.2999999999993</v>
+        <v>3454.3600000000006</v>
       </c>
       <c r="E15" s="102">
         <f>SUM(F15:BE15)</f>
-        <v>22505.7</v>
-      </c>
-      <c r="F15" s="109">
-        <v>3500</v>
-      </c>
-      <c r="G15" s="109">
-        <v>8000</v>
-      </c>
-      <c r="H15" s="109">
-        <v>4683</v>
-      </c>
-      <c r="I15" s="109">
-        <v>235</v>
-      </c>
-      <c r="J15" s="109">
-        <v>5362.5</v>
-      </c>
-      <c r="K15" s="109">
-        <v>365.2</v>
-      </c>
-      <c r="L15" s="109">
-        <v>110</v>
-      </c>
-      <c r="M15" s="109">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
       <c r="N15" s="109"/>
       <c r="O15" s="109"/>
       <c r="P15" s="104"/>
@@ -2746,27 +2753,19 @@
         <v>42</v>
       </c>
       <c r="B16" s="30">
-        <v>5.16</v>
+        <v>6.16</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="88">
-        <v>0</v>
+        <v>1279.98</v>
       </c>
       <c r="E16" s="88">
-        <v>0</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>109</v>
-      </c>
+        <v>22265.66</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
@@ -2818,30 +2817,22 @@
       <c r="B17" s="115">
         <v>31000</v>
       </c>
-      <c r="C17" s="151"/>
+      <c r="C17" s="151">
+        <v>4175.5</v>
+      </c>
       <c r="D17" s="116">
         <f>B17-C17-E17</f>
         <v>26824.5</v>
       </c>
       <c r="E17" s="115">
         <f>SUM(F17:BE17)</f>
-        <v>4175.5</v>
-      </c>
-      <c r="F17" s="117">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="117">
-        <v>2563.5</v>
-      </c>
-      <c r="H17" s="117">
-        <v>200</v>
-      </c>
-      <c r="I17" s="117">
-        <v>202</v>
-      </c>
-      <c r="J17" s="117">
-        <v>210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
       <c r="K17" s="117"/>
       <c r="L17" s="117"/>
       <c r="M17" s="117"/>
@@ -2898,9 +2889,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="32" t="s">
-        <v>112</v>
-      </c>
+      <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="49"/>
@@ -3084,16 +3073,14 @@
       <c r="B21" s="127">
         <v>13000</v>
       </c>
-      <c r="C21" s="128">
-        <v>5290.6</v>
-      </c>
+      <c r="C21" s="128"/>
       <c r="D21" s="127">
         <f>B21-C21-E21</f>
-        <v>1574.3999999999996</v>
+        <v>6815</v>
       </c>
       <c r="E21" s="128">
         <f>SUM(F21:BE21)</f>
-        <v>6135</v>
+        <v>6185</v>
       </c>
       <c r="F21" s="129">
         <v>3000</v>
@@ -3122,7 +3109,9 @@
       <c r="N21" s="129">
         <v>75</v>
       </c>
-      <c r="O21" s="129"/>
+      <c r="O21" s="129">
+        <v>50</v>
+      </c>
       <c r="P21" s="129"/>
       <c r="Q21" s="129"/>
       <c r="R21" s="129"/>
@@ -3226,12 +3215,10 @@
       <c r="B23" s="132">
         <v>43000</v>
       </c>
-      <c r="C23" s="133">
-        <v>2362</v>
-      </c>
+      <c r="C23" s="133"/>
       <c r="D23" s="132">
         <f>B23-C23-E23</f>
-        <v>38453</v>
+        <v>40815</v>
       </c>
       <c r="E23" s="132">
         <f>SUM(F23:BE23)</f>
@@ -3303,7 +3290,7 @@
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
@@ -3576,7 +3563,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="32"/>
       <c r="H28" s="13"/>
@@ -3635,15 +3622,15 @@
       </c>
       <c r="C29" s="17">
         <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>7652.6</v>
+        <v>27721.14</v>
       </c>
       <c r="D29" s="9">
         <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
-        <v>116595.29999999999</v>
+        <v>123157.95999999999</v>
       </c>
       <c r="E29" s="9">
         <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
-        <v>36752.1</v>
+        <v>10120.9</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
@@ -3749,7 +3736,7 @@
       </c>
       <c r="N31" s="77">
         <f>SUM(A39,A48,A58)</f>
-        <v>244399</v>
+        <v>238099</v>
       </c>
       <c r="O31" s="2"/>
     </row>
@@ -3762,7 +3749,7 @@
       </c>
       <c r="K32" s="76">
         <f>SUM(K31,-K33)</f>
-        <v>59071.160000000033</v>
+        <v>55581.300000000047</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="78" t="s">
@@ -3770,7 +3757,7 @@
       </c>
       <c r="N32" s="79">
         <f>SUM(N31,-K32)</f>
-        <v>185327.83999999997</v>
+        <v>182517.69999999995</v>
       </c>
       <c r="P32" s="2"/>
       <c r="R32"/>
@@ -3798,7 +3785,7 @@
       </c>
       <c r="K33" s="77">
         <f>SUM(D12,D29)</f>
-        <v>316928.83999999997</v>
+        <v>320418.69999999995</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -3913,7 +3900,7 @@
       <c r="E39" s="36"/>
       <c r="F39" s="27"/>
       <c r="G39" s="155" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="24"/>
@@ -3977,10 +3964,10 @@
     <row r="43" spans="1:16">
       <c r="A43" s="21">
         <f>SUM(B43:C43)</f>
-        <v>147000</v>
+        <v>166700</v>
       </c>
       <c r="B43" s="23">
-        <v>147000</v>
+        <v>166700</v>
       </c>
       <c r="C43" s="25">
         <f>SUM(D43:U43)</f>
@@ -4064,11 +4051,11 @@
     <row r="48" spans="1:16">
       <c r="A48" s="22">
         <f>SUM(A43,A45,A47)</f>
-        <v>148399</v>
+        <v>168099</v>
       </c>
       <c r="B48" s="23">
         <f>SUM(B43,B45,B47)</f>
-        <v>147000</v>
+        <v>166700</v>
       </c>
       <c r="C48" s="23">
         <f>SUM(C43,C45,C47)</f>
@@ -4139,18 +4126,16 @@
     <row r="55" spans="1:10">
       <c r="A55" s="21">
         <f>SUM(B55:C55)</f>
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="B55" s="23">
         <v>0</v>
       </c>
       <c r="C55" s="25">
         <f>SUM(D55:U55)</f>
-        <v>56000</v>
-      </c>
-      <c r="D55" s="28">
-        <v>26000</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="D55" s="28"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
       <c r="G55" s="29"/>
@@ -4163,17 +4148,13 @@
       <c r="A56" s="21"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
-      <c r="D56" s="27">
-        <v>43232</v>
-      </c>
-      <c r="E56" s="87" t="s">
-        <v>65</v>
-      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="156" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J56" s="50"/>
     </row>
@@ -4199,7 +4180,7 @@
     <row r="58" spans="1:10">
       <c r="A58" s="22">
         <f>SUM(A53,A55,A57)</f>
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="B58" s="23">
         <f>SUM(B53,B55,B57)</f>
@@ -4207,7 +4188,7 @@
       </c>
       <c r="C58" s="23">
         <f>SUM(C53,C55,C57)</f>
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
@@ -4266,7 +4247,7 @@
       </c>
       <c r="B66" s="59">
         <f>SUM(C66:Z78)</f>
-        <v>762370.5</v>
+        <v>764684</v>
       </c>
       <c r="C66" s="12">
         <v>1724</v>
@@ -4725,7 +4706,7 @@
         <v>8967</v>
       </c>
       <c r="G72" s="12">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H72" s="12">
         <v>995</v>
@@ -4798,7 +4779,9 @@
       <c r="F73" s="12">
         <v>1800</v>
       </c>
-      <c r="G73" s="12"/>
+      <c r="G73" s="12">
+        <v>813.5</v>
+      </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
@@ -4925,6 +4908,9 @@
     </row>
     <row r="78" spans="1:26" s="153" customFormat="1"/>
     <row r="79" spans="1:26" s="153" customFormat="1"/>
+    <row r="82" spans="3:3">
+      <c r="C82"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20291,7 +20277,7 @@
       <c r="E39" s="36"/>
       <c r="F39" s="27"/>
       <c r="G39" s="155" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="24"/>
@@ -21290,4 +21276,3232 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ82"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="24" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52">
+      <c r="A1" s="12"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+    </row>
+    <row r="2" spans="1:52">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+    </row>
+    <row r="3" spans="1:52" s="106" customFormat="1">
+      <c r="A3" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="102">
+        <v>114000</v>
+      </c>
+      <c r="C3" s="103">
+        <v>4030</v>
+      </c>
+      <c r="D3" s="102">
+        <f>B3-C3-E3</f>
+        <v>105966.7</v>
+      </c>
+      <c r="E3" s="103">
+        <f>SUM(F3:BE3)</f>
+        <v>4003.3</v>
+      </c>
+      <c r="F3" s="104">
+        <v>302.60000000000002</v>
+      </c>
+      <c r="G3" s="104">
+        <v>320</v>
+      </c>
+      <c r="H3" s="104">
+        <v>312</v>
+      </c>
+      <c r="I3" s="104">
+        <v>752.5</v>
+      </c>
+      <c r="J3" s="104">
+        <v>300</v>
+      </c>
+      <c r="K3" s="104">
+        <v>332</v>
+      </c>
+      <c r="L3" s="104">
+        <v>532.20000000000005</v>
+      </c>
+      <c r="M3" s="104">
+        <v>432.8</v>
+      </c>
+      <c r="N3" s="104">
+        <v>321</v>
+      </c>
+      <c r="O3" s="104">
+        <v>398.2</v>
+      </c>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="105"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="105"/>
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+      <c r="AS3" s="105"/>
+      <c r="AT3" s="105"/>
+      <c r="AU3" s="105"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="105"/>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4" s="13">
+        <v>29</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+    </row>
+    <row r="5" spans="1:52" s="148" customFormat="1">
+      <c r="A5" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="121">
+        <v>63000</v>
+      </c>
+      <c r="C5" s="122">
+        <v>1243.67</v>
+      </c>
+      <c r="D5" s="121">
+        <f>B5-C5-E5</f>
+        <v>61165.83</v>
+      </c>
+      <c r="E5" s="122">
+        <f>SUM(F5:BE5)</f>
+        <v>590.5</v>
+      </c>
+      <c r="F5" s="144">
+        <v>288</v>
+      </c>
+      <c r="G5" s="145">
+        <v>302.5</v>
+      </c>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="147"/>
+      <c r="AB5" s="147"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="147"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="147"/>
+      <c r="AI5" s="147"/>
+      <c r="AJ5" s="147"/>
+      <c r="AK5" s="147"/>
+      <c r="AL5" s="147"/>
+      <c r="AM5" s="147"/>
+      <c r="AN5" s="147"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="147"/>
+      <c r="AT5" s="147"/>
+      <c r="AU5" s="147"/>
+      <c r="AV5" s="147"/>
+      <c r="AW5" s="147"/>
+      <c r="AX5" s="147"/>
+      <c r="AY5" s="147"/>
+      <c r="AZ5" s="147"/>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" s="13">
+        <v>28</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="32">
+        <v>5.22</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+    </row>
+    <row r="7" spans="1:52" s="141" customFormat="1">
+      <c r="A7" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="138">
+        <v>21000</v>
+      </c>
+      <c r="C7" s="138">
+        <v>1570.39</v>
+      </c>
+      <c r="D7" s="139">
+        <f>B7-C7-E7</f>
+        <v>16494.71</v>
+      </c>
+      <c r="E7" s="139">
+        <f>SUM(F7:BE7)</f>
+        <v>2934.9000000000005</v>
+      </c>
+      <c r="F7" s="140">
+        <v>736.8</v>
+      </c>
+      <c r="G7" s="140">
+        <v>600</v>
+      </c>
+      <c r="H7" s="140">
+        <v>202</v>
+      </c>
+      <c r="I7" s="140">
+        <v>326</v>
+      </c>
+      <c r="J7" s="140">
+        <v>86</v>
+      </c>
+      <c r="K7" s="140">
+        <v>186</v>
+      </c>
+      <c r="L7" s="140">
+        <v>235</v>
+      </c>
+      <c r="M7" s="140">
+        <v>210.8</v>
+      </c>
+      <c r="N7" s="140">
+        <v>352.3</v>
+      </c>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" s="13">
+        <v>28</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+    </row>
+    <row r="9" spans="1:52" s="111" customFormat="1">
+      <c r="A9" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="102">
+        <v>17000</v>
+      </c>
+      <c r="C9" s="102">
+        <v>2255</v>
+      </c>
+      <c r="D9" s="102">
+        <f>B9-C9-E9</f>
+        <v>13633.5</v>
+      </c>
+      <c r="E9" s="103">
+        <f>SUM(F9:BE9)</f>
+        <v>1111.5</v>
+      </c>
+      <c r="F9" s="104">
+        <v>265</v>
+      </c>
+      <c r="G9" s="109">
+        <v>526</v>
+      </c>
+      <c r="H9" s="109">
+        <v>320.5</v>
+      </c>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="109"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="109"/>
+      <c r="AE9" s="109"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="110"/>
+      <c r="AN9" s="110"/>
+      <c r="AO9" s="110"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="110"/>
+      <c r="AR9" s="110"/>
+      <c r="AS9" s="110"/>
+      <c r="AT9" s="110"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="110"/>
+    </row>
+    <row r="10" spans="1:52" s="65" customFormat="1">
+      <c r="A10" s="13">
+        <v>30</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="64"/>
+    </row>
+    <row r="11" spans="1:52" s="72" customFormat="1">
+      <c r="A11" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="68">
+        <v>0</v>
+      </c>
+      <c r="C11" s="68">
+        <v>0</v>
+      </c>
+      <c r="D11" s="68">
+        <f>B11-C11-E11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="69">
+        <f>SUM(F11:BE11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+    </row>
+    <row r="12" spans="1:52" s="8" customFormat="1">
+      <c r="A12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="10">
+        <f>SUM(B3,B5,B7,B9,B11)</f>
+        <v>215000</v>
+      </c>
+      <c r="C12" s="66">
+        <f>SUM(C3,C5,C7,C9,C11)</f>
+        <v>9099.0600000000013</v>
+      </c>
+      <c r="D12" s="6">
+        <f>SUM(D3,D5,D7,D9,D11)</f>
+        <v>197260.74</v>
+      </c>
+      <c r="E12" s="6">
+        <f>SUM(E3,E5,E7,E9,E11)</f>
+        <v>8640.2000000000007</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+    </row>
+    <row r="13" spans="1:52" s="59" customFormat="1">
+      <c r="A13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="54">
+        <v>30000</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55">
+        <f>B13-C13-E13</f>
+        <v>30000</v>
+      </c>
+      <c r="E13" s="55">
+        <f>SUM(F13:BE13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+    </row>
+    <row r="14" spans="1:52" s="59" customFormat="1">
+      <c r="A14" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="54">
+        <v>14</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="58"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="58"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="58"/>
+    </row>
+    <row r="15" spans="1:52" s="111" customFormat="1">
+      <c r="A15" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="102">
+        <v>27000</v>
+      </c>
+      <c r="C15" s="103">
+        <f>SUM(D16,E16)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="112">
+        <f>B15-C15-E15</f>
+        <v>4494.2999999999993</v>
+      </c>
+      <c r="E15" s="102">
+        <f>SUM(F15:BE15)</f>
+        <v>22505.7</v>
+      </c>
+      <c r="F15" s="109">
+        <v>3500</v>
+      </c>
+      <c r="G15" s="109">
+        <v>8000</v>
+      </c>
+      <c r="H15" s="109">
+        <v>4683</v>
+      </c>
+      <c r="I15" s="109">
+        <v>235</v>
+      </c>
+      <c r="J15" s="109">
+        <v>5362.5</v>
+      </c>
+      <c r="K15" s="109">
+        <v>365.2</v>
+      </c>
+      <c r="L15" s="109">
+        <v>110</v>
+      </c>
+      <c r="M15" s="109">
+        <v>250</v>
+      </c>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="110"/>
+      <c r="AM15" s="110"/>
+      <c r="AN15" s="110"/>
+      <c r="AO15" s="110"/>
+      <c r="AP15" s="110"/>
+      <c r="AQ15" s="110"/>
+      <c r="AR15" s="110"/>
+      <c r="AS15" s="110"/>
+      <c r="AT15" s="110"/>
+      <c r="AU15" s="110"/>
+      <c r="AV15" s="110"/>
+      <c r="AW15" s="110"/>
+      <c r="AX15" s="110"/>
+      <c r="AY15" s="110"/>
+      <c r="AZ15" s="110"/>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="30">
+        <v>5.16</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="88">
+        <v>0</v>
+      </c>
+      <c r="E16" s="88">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+    </row>
+    <row r="17" spans="1:52" s="119" customFormat="1">
+      <c r="A17" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="115">
+        <v>31000</v>
+      </c>
+      <c r="C17" s="151"/>
+      <c r="D17" s="116">
+        <f>B17-C17-E17</f>
+        <v>26824.5</v>
+      </c>
+      <c r="E17" s="115">
+        <f>SUM(F17:BE17)</f>
+        <v>4175.5</v>
+      </c>
+      <c r="F17" s="117">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="117">
+        <v>2563.5</v>
+      </c>
+      <c r="H17" s="117">
+        <v>200</v>
+      </c>
+      <c r="I17" s="117">
+        <v>202</v>
+      </c>
+      <c r="J17" s="117">
+        <v>210</v>
+      </c>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="115"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="118"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="118"/>
+      <c r="AL17" s="118"/>
+      <c r="AM17" s="118"/>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="118"/>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
+      <c r="AY17" s="118"/>
+      <c r="AZ17" s="118"/>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="13">
+        <v>5.13</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+    </row>
+    <row r="19" spans="1:52" s="106" customFormat="1">
+      <c r="A19" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="102">
+        <v>15000</v>
+      </c>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103">
+        <f>B19-C19-E19</f>
+        <v>14571.7</v>
+      </c>
+      <c r="E19" s="103">
+        <f>SUM(F19:BE19)</f>
+        <v>428.3</v>
+      </c>
+      <c r="F19" s="104">
+        <v>220</v>
+      </c>
+      <c r="G19" s="104">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H19" s="107">
+        <v>50</v>
+      </c>
+      <c r="I19" s="107">
+        <v>62</v>
+      </c>
+      <c r="J19" s="107">
+        <v>21.2</v>
+      </c>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="105"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="105"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="105"/>
+      <c r="AM19" s="105"/>
+      <c r="AN19" s="105"/>
+      <c r="AO19" s="105"/>
+      <c r="AP19" s="105"/>
+      <c r="AQ19" s="105"/>
+      <c r="AR19" s="105"/>
+      <c r="AS19" s="105"/>
+      <c r="AT19" s="105"/>
+      <c r="AU19" s="105"/>
+      <c r="AV19" s="105"/>
+      <c r="AW19" s="105"/>
+      <c r="AX19" s="105"/>
+      <c r="AY19" s="105"/>
+      <c r="AZ19" s="105"/>
+    </row>
+    <row r="20" spans="1:52" s="2" customFormat="1">
+      <c r="A20" s="88"/>
+      <c r="B20" s="19">
+        <v>5.14</v>
+      </c>
+      <c r="C20" s="88"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="47"/>
+      <c r="AX20" s="47"/>
+      <c r="AY20" s="47"/>
+      <c r="AZ20" s="47"/>
+    </row>
+    <row r="21" spans="1:52" s="130" customFormat="1">
+      <c r="A21" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="127">
+        <v>13000</v>
+      </c>
+      <c r="C21" s="128"/>
+      <c r="D21" s="127">
+        <f>B21-C21-E21</f>
+        <v>6815</v>
+      </c>
+      <c r="E21" s="128">
+        <f>SUM(F21:BE21)</f>
+        <v>6185</v>
+      </c>
+      <c r="F21" s="129">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="129">
+        <v>2500</v>
+      </c>
+      <c r="H21" s="129">
+        <v>30</v>
+      </c>
+      <c r="I21" s="129">
+        <v>260</v>
+      </c>
+      <c r="J21" s="129">
+        <v>85</v>
+      </c>
+      <c r="K21" s="129">
+        <v>90</v>
+      </c>
+      <c r="L21" s="129">
+        <v>52</v>
+      </c>
+      <c r="M21" s="129">
+        <v>43</v>
+      </c>
+      <c r="N21" s="129">
+        <v>75</v>
+      </c>
+      <c r="O21" s="129">
+        <v>50</v>
+      </c>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="25"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="25"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="25"/>
+      <c r="AY21" s="25"/>
+      <c r="AZ21" s="25"/>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="A22" s="5"/>
+      <c r="B22" s="30">
+        <v>5.14</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+    </row>
+    <row r="23" spans="1:52" s="136" customFormat="1">
+      <c r="A23" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="132">
+        <v>43000</v>
+      </c>
+      <c r="C23" s="133"/>
+      <c r="D23" s="132">
+        <f>B23-C23-E23</f>
+        <v>40815</v>
+      </c>
+      <c r="E23" s="132">
+        <f>SUM(F23:BE23)</f>
+        <v>2185</v>
+      </c>
+      <c r="F23" s="134">
+        <v>1165</v>
+      </c>
+      <c r="G23" s="134">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="134">
+        <v>20</v>
+      </c>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="135"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="135"/>
+      <c r="AH23" s="135"/>
+      <c r="AI23" s="135"/>
+      <c r="AJ23" s="135"/>
+      <c r="AK23" s="135"/>
+      <c r="AL23" s="135"/>
+      <c r="AM23" s="135"/>
+      <c r="AN23" s="135"/>
+      <c r="AO23" s="135"/>
+      <c r="AP23" s="135"/>
+      <c r="AQ23" s="135"/>
+      <c r="AR23" s="135"/>
+      <c r="AS23" s="135"/>
+      <c r="AT23" s="135"/>
+      <c r="AU23" s="135"/>
+      <c r="AV23" s="135"/>
+      <c r="AW23" s="135"/>
+      <c r="AX23" s="135"/>
+      <c r="AY23" s="135"/>
+      <c r="AZ23" s="135"/>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" s="5"/>
+      <c r="B24" s="13">
+        <v>5.15</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+    </row>
+    <row r="25" spans="1:52" s="125" customFormat="1">
+      <c r="A25" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="142">
+        <f>SUM(A31,-B11)</f>
+        <v>20000</v>
+      </c>
+      <c r="C25" s="122"/>
+      <c r="D25" s="121">
+        <f>B25-C25-E25</f>
+        <v>18847.400000000001</v>
+      </c>
+      <c r="E25" s="121">
+        <f>SUM(F25:BE25)</f>
+        <v>1152.5999999999999</v>
+      </c>
+      <c r="F25" s="123">
+        <v>236</v>
+      </c>
+      <c r="G25" s="123">
+        <v>200</v>
+      </c>
+      <c r="H25" s="123">
+        <v>102</v>
+      </c>
+      <c r="I25" s="123">
+        <v>123.6</v>
+      </c>
+      <c r="J25" s="123">
+        <v>160</v>
+      </c>
+      <c r="K25" s="123">
+        <v>125</v>
+      </c>
+      <c r="L25" s="123">
+        <v>100</v>
+      </c>
+      <c r="M25" s="123">
+        <v>106</v>
+      </c>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="124"/>
+      <c r="AL25" s="124"/>
+      <c r="AM25" s="124"/>
+      <c r="AN25" s="124"/>
+      <c r="AO25" s="124"/>
+      <c r="AP25" s="124"/>
+      <c r="AQ25" s="124"/>
+      <c r="AR25" s="124"/>
+      <c r="AS25" s="124"/>
+      <c r="AT25" s="124"/>
+      <c r="AU25" s="124"/>
+      <c r="AV25" s="124"/>
+      <c r="AW25" s="124"/>
+      <c r="AX25" s="124"/>
+      <c r="AY25" s="124"/>
+      <c r="AZ25" s="124"/>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="13">
+        <v>5.15</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+    </row>
+    <row r="27" spans="1:52" s="111" customFormat="1">
+      <c r="A27" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="102">
+        <v>12000</v>
+      </c>
+      <c r="C27" s="103">
+        <f>SUM(F30,G30)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="102">
+        <f>B27-C27-E27</f>
+        <v>11830</v>
+      </c>
+      <c r="E27" s="102">
+        <f>SUM(F27:BE27)</f>
+        <v>170</v>
+      </c>
+      <c r="F27" s="109">
+        <v>170</v>
+      </c>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="110"/>
+      <c r="AJ27" s="110"/>
+      <c r="AK27" s="110"/>
+      <c r="AL27" s="110"/>
+      <c r="AM27" s="110"/>
+      <c r="AN27" s="110"/>
+      <c r="AO27" s="110"/>
+      <c r="AP27" s="110"/>
+      <c r="AQ27" s="110"/>
+      <c r="AR27" s="110"/>
+      <c r="AS27" s="110"/>
+      <c r="AT27" s="110"/>
+      <c r="AU27" s="110"/>
+      <c r="AV27" s="110"/>
+      <c r="AW27" s="110"/>
+      <c r="AX27" s="110"/>
+      <c r="AY27" s="110"/>
+      <c r="AZ27" s="110"/>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="A28" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="19">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+    </row>
+    <row r="29" spans="1:52" s="8" customFormat="1">
+      <c r="A29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="11">
+        <f>SUM(B15,B17,B19,B21,B23,B25,B27)</f>
+        <v>161000</v>
+      </c>
+      <c r="C29" s="17">
+        <f>SUM(C15,C17,C19,C21,C23,C25,C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <f>SUM(D15,D17,D19,D21,D23,D25,D27)</f>
+        <v>124197.9</v>
+      </c>
+      <c r="E29" s="9">
+        <f>SUM(E15,E17,E19,E21,E23,E25,E27)</f>
+        <v>36802.1</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="9"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
+      <c r="AT29" s="9"/>
+      <c r="AU29" s="9"/>
+      <c r="AV29" s="9"/>
+      <c r="AW29" s="9"/>
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="9"/>
+      <c r="AZ29" s="9"/>
+    </row>
+    <row r="30" spans="1:52" s="2" customFormat="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="100"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="88">
+        <v>0</v>
+      </c>
+      <c r="G30" s="88">
+        <v>0</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" s="95">
+        <v>20000</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="77">
+        <f>SUM(B12,B29)</f>
+        <v>376000</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="77">
+        <f>SUM(A39,A48,A58)</f>
+        <v>238099</v>
+      </c>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="G32" s="20"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="76">
+        <f>SUM(K31,-K33)</f>
+        <v>54541.359999999986</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="79">
+        <f>SUM(N31,-K32)</f>
+        <v>183557.64</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="77">
+        <f>SUM(D12,D29)</f>
+        <v>321458.64</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="21">
+        <f>SUM(B34:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="23">
+        <v>0</v>
+      </c>
+      <c r="C34" s="25">
+        <f>SUM(D34:R34)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="98"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="21">
+        <f>SUM(B36:C36)</f>
+        <v>20000</v>
+      </c>
+      <c r="B36" s="23">
+        <v>0</v>
+      </c>
+      <c r="C36" s="44">
+        <f>SUM(D36:R36)</f>
+        <v>20000</v>
+      </c>
+      <c r="D36" s="29">
+        <v>20000</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="86">
+        <v>43297</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="21">
+        <f>SUM(B38:C38)</f>
+        <v>20000</v>
+      </c>
+      <c r="B38" s="23">
+        <v>0</v>
+      </c>
+      <c r="C38" s="25">
+        <f>SUM(D38:R38)</f>
+        <v>20000</v>
+      </c>
+      <c r="D38" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="155">
+        <v>10000</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="19">
+        <f>SUM(A34,A36,A38)</f>
+        <v>40000</v>
+      </c>
+      <c r="B39" s="23">
+        <f>SUM(B34,B36,B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="22">
+        <f>SUM(C34,C36,C38)</f>
+        <v>40000</v>
+      </c>
+      <c r="D39" s="86">
+        <v>43275</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="24"/>
+      <c r="M39" s="152" t="s">
+        <v>100</v>
+      </c>
+      <c r="P39" s="12"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="83">
+        <v>20180624</v>
+      </c>
+      <c r="F40" s="83">
+        <v>5.24</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="M40" s="12">
+        <v>20180328</v>
+      </c>
+      <c r="N40" s="22">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="50"/>
+      <c r="K41" s="94"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="22"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="21">
+        <f>SUM(B43:C43)</f>
+        <v>166700</v>
+      </c>
+      <c r="B43" s="23">
+        <v>166700</v>
+      </c>
+      <c r="C43" s="25">
+        <f>SUM(D43:U43)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="21">
+        <f>SUM(B45:C45)</f>
+        <v>1399</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="25">
+        <f>SUM(D45:U45)</f>
+        <v>1399</v>
+      </c>
+      <c r="D45" s="150">
+        <v>1399</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="87">
+        <v>43517</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="21">
+        <f>SUM(B47:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="B47" s="23">
+        <v>0</v>
+      </c>
+      <c r="C47" s="25">
+        <f>SUM(D47:U47)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="22">
+        <f>SUM(A43,A45,A47)</f>
+        <v>168099</v>
+      </c>
+      <c r="B48" s="23">
+        <f>SUM(B43,B45,B47)</f>
+        <v>166700</v>
+      </c>
+      <c r="C48" s="23">
+        <f>SUM(C43,C45,C47)</f>
+        <v>1399</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="61"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="21">
+        <f>SUM(B53:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="B53" s="23">
+        <v>0</v>
+      </c>
+      <c r="C53" s="25">
+        <f>SUM(D53:U53)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="21"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="21">
+        <f>SUM(B55:C55)</f>
+        <v>30000</v>
+      </c>
+      <c r="B55" s="23">
+        <v>0</v>
+      </c>
+      <c r="C55" s="25">
+        <f>SUM(D55:U55)</f>
+        <v>30000</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="21"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="156" t="s">
+        <v>117</v>
+      </c>
+      <c r="J56" s="50"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="21">
+        <f>SUM(B57:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="B57" s="23">
+        <v>0</v>
+      </c>
+      <c r="C57" s="25">
+        <f>SUM(D57:U57)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="22">
+        <f>SUM(A53,A55,A57)</f>
+        <v>30000</v>
+      </c>
+      <c r="B58" s="23">
+        <f>SUM(B53,B55,B57)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="23">
+        <f>SUM(C53,C55,C57)</f>
+        <v>30000</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="74"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="89"/>
+      <c r="B61" s="90">
+        <v>42990</v>
+      </c>
+      <c r="C61" s="74"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="74">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="59">
+        <f>SUM(C66:Z78)</f>
+        <v>764684</v>
+      </c>
+      <c r="C66" s="12">
+        <v>1724</v>
+      </c>
+      <c r="D66" s="12">
+        <v>1174.3</v>
+      </c>
+      <c r="E66" s="12">
+        <v>366.3</v>
+      </c>
+      <c r="F66" s="12">
+        <v>2683.1</v>
+      </c>
+      <c r="G66" s="12">
+        <v>1880</v>
+      </c>
+      <c r="H66" s="12">
+        <v>1656</v>
+      </c>
+      <c r="I66" s="12">
+        <v>2160</v>
+      </c>
+      <c r="J66" s="12">
+        <v>1174.3</v>
+      </c>
+      <c r="K66" s="12">
+        <v>10690</v>
+      </c>
+      <c r="L66" s="12">
+        <v>8936.2000000000007</v>
+      </c>
+      <c r="M66" s="12">
+        <v>6080</v>
+      </c>
+      <c r="N66" s="12">
+        <v>5368</v>
+      </c>
+      <c r="O66" s="12">
+        <v>4500</v>
+      </c>
+      <c r="P66" s="12">
+        <v>3300</v>
+      </c>
+      <c r="Q66" s="12">
+        <v>6300</v>
+      </c>
+      <c r="R66" s="12">
+        <v>698</v>
+      </c>
+      <c r="S66" s="12">
+        <v>1568.5</v>
+      </c>
+      <c r="T66" s="12">
+        <v>2530</v>
+      </c>
+      <c r="U66" s="12">
+        <v>5560</v>
+      </c>
+      <c r="V66" s="12">
+        <v>7862.3</v>
+      </c>
+      <c r="W66" s="12">
+        <v>2358</v>
+      </c>
+      <c r="X66" s="12">
+        <v>793.8</v>
+      </c>
+      <c r="Y66" s="12">
+        <v>3590</v>
+      </c>
+      <c r="Z66" s="12">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="C67" s="12">
+        <v>1317.5</v>
+      </c>
+      <c r="D67" s="12">
+        <v>7536.5</v>
+      </c>
+      <c r="E67" s="12">
+        <v>865.3</v>
+      </c>
+      <c r="F67" s="12">
+        <v>9880</v>
+      </c>
+      <c r="G67" s="12">
+        <v>15250</v>
+      </c>
+      <c r="H67" s="12">
+        <v>1450</v>
+      </c>
+      <c r="I67" s="12">
+        <v>6000</v>
+      </c>
+      <c r="J67" s="12">
+        <v>1872.8</v>
+      </c>
+      <c r="K67" s="12">
+        <v>220.3</v>
+      </c>
+      <c r="L67" s="12">
+        <v>1100</v>
+      </c>
+      <c r="M67" s="12">
+        <v>1562</v>
+      </c>
+      <c r="N67" s="12">
+        <v>302.60000000000002</v>
+      </c>
+      <c r="O67" s="12">
+        <v>3530</v>
+      </c>
+      <c r="P67" s="12">
+        <v>8800</v>
+      </c>
+      <c r="Q67" s="12">
+        <v>9860</v>
+      </c>
+      <c r="R67" s="12">
+        <v>1532.6</v>
+      </c>
+      <c r="S67" s="12">
+        <v>3566</v>
+      </c>
+      <c r="T67" s="12">
+        <v>1365</v>
+      </c>
+      <c r="U67" s="12">
+        <v>6538</v>
+      </c>
+      <c r="V67" s="12">
+        <v>756.6</v>
+      </c>
+      <c r="W67" s="12">
+        <v>5683.2</v>
+      </c>
+      <c r="X67" s="12">
+        <v>2950</v>
+      </c>
+      <c r="Y67" s="12">
+        <v>2000</v>
+      </c>
+      <c r="Z67" s="12">
+        <v>7690.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="C68" s="12">
+        <v>6653.2</v>
+      </c>
+      <c r="D68" s="12">
+        <v>256.5</v>
+      </c>
+      <c r="E68" s="12">
+        <v>8890</v>
+      </c>
+      <c r="F68" s="12">
+        <v>1050</v>
+      </c>
+      <c r="G68" s="12">
+        <v>180</v>
+      </c>
+      <c r="H68" s="12">
+        <v>2265.6</v>
+      </c>
+      <c r="I68" s="12">
+        <v>1450</v>
+      </c>
+      <c r="J68" s="12">
+        <v>7800</v>
+      </c>
+      <c r="K68" s="12">
+        <v>9562.6</v>
+      </c>
+      <c r="L68" s="12">
+        <v>855</v>
+      </c>
+      <c r="M68" s="12">
+        <v>2202.5</v>
+      </c>
+      <c r="N68" s="12">
+        <v>8865.6</v>
+      </c>
+      <c r="O68" s="12">
+        <v>4263.5</v>
+      </c>
+      <c r="P68" s="12">
+        <v>7696</v>
+      </c>
+      <c r="Q68" s="12">
+        <v>5568</v>
+      </c>
+      <c r="R68" s="12">
+        <v>7800</v>
+      </c>
+      <c r="S68" s="12">
+        <v>221</v>
+      </c>
+      <c r="T68" s="12">
+        <v>180</v>
+      </c>
+      <c r="U68" s="12">
+        <v>8500</v>
+      </c>
+      <c r="V68" s="12">
+        <v>12458</v>
+      </c>
+      <c r="W68" s="12">
+        <v>2532.6</v>
+      </c>
+      <c r="X68" s="12">
+        <v>3690</v>
+      </c>
+      <c r="Y68" s="12">
+        <v>780</v>
+      </c>
+      <c r="Z68" s="12">
+        <v>8865.7000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="C69" s="12">
+        <v>7736.6</v>
+      </c>
+      <c r="D69" s="12">
+        <v>3212</v>
+      </c>
+      <c r="E69" s="12">
+        <v>8552.5</v>
+      </c>
+      <c r="F69" s="12">
+        <v>7736</v>
+      </c>
+      <c r="G69" s="12">
+        <v>6588</v>
+      </c>
+      <c r="H69" s="12">
+        <v>1863</v>
+      </c>
+      <c r="I69" s="12">
+        <v>5368.3</v>
+      </c>
+      <c r="J69" s="12">
+        <v>536</v>
+      </c>
+      <c r="K69" s="12">
+        <v>782.8</v>
+      </c>
+      <c r="L69" s="12">
+        <v>972.1</v>
+      </c>
+      <c r="M69" s="12">
+        <v>1837.3</v>
+      </c>
+      <c r="N69" s="12">
+        <v>6190.2</v>
+      </c>
+      <c r="O69" s="12">
+        <v>8367.7999999999993</v>
+      </c>
+      <c r="P69" s="12">
+        <v>212.5</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>583</v>
+      </c>
+      <c r="R69" s="12">
+        <v>2312</v>
+      </c>
+      <c r="S69" s="12">
+        <v>1835</v>
+      </c>
+      <c r="T69" s="12">
+        <v>9563</v>
+      </c>
+      <c r="U69" s="12">
+        <v>980</v>
+      </c>
+      <c r="V69" s="12">
+        <v>1622</v>
+      </c>
+      <c r="W69" s="12">
+        <v>8682</v>
+      </c>
+      <c r="X69" s="12">
+        <v>2050</v>
+      </c>
+      <c r="Y69" s="12">
+        <v>3536</v>
+      </c>
+      <c r="Z69" s="12">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="C70" s="12">
+        <v>3265</v>
+      </c>
+      <c r="D70" s="12">
+        <v>2725.1</v>
+      </c>
+      <c r="E70" s="12">
+        <v>2483</v>
+      </c>
+      <c r="F70" s="12">
+        <v>9568</v>
+      </c>
+      <c r="G70" s="12">
+        <v>2537</v>
+      </c>
+      <c r="H70" s="12">
+        <v>6838.5</v>
+      </c>
+      <c r="I70" s="12">
+        <v>863.7</v>
+      </c>
+      <c r="J70" s="12">
+        <v>2135</v>
+      </c>
+      <c r="K70" s="12">
+        <v>2723</v>
+      </c>
+      <c r="L70" s="12">
+        <v>7569</v>
+      </c>
+      <c r="M70" s="12">
+        <v>1500</v>
+      </c>
+      <c r="N70" s="12">
+        <v>6937</v>
+      </c>
+      <c r="O70" s="12">
+        <v>3578</v>
+      </c>
+      <c r="P70" s="12">
+        <v>5750</v>
+      </c>
+      <c r="Q70" s="12">
+        <v>3560</v>
+      </c>
+      <c r="R70" s="12">
+        <v>6900</v>
+      </c>
+      <c r="S70" s="12">
+        <v>9852</v>
+      </c>
+      <c r="T70" s="12">
+        <v>5200</v>
+      </c>
+      <c r="U70" s="12">
+        <v>7865</v>
+      </c>
+      <c r="V70" s="12">
+        <v>4220</v>
+      </c>
+      <c r="W70" s="12">
+        <v>9860</v>
+      </c>
+      <c r="X70" s="12">
+        <v>2566.3000000000002</v>
+      </c>
+      <c r="Y70" s="12">
+        <v>1836.5</v>
+      </c>
+      <c r="Z70" s="12">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="C71" s="12">
+        <v>3865.5</v>
+      </c>
+      <c r="D71" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E71" s="12">
+        <v>4530</v>
+      </c>
+      <c r="F71" s="12">
+        <v>6533</v>
+      </c>
+      <c r="G71" s="12">
+        <v>962</v>
+      </c>
+      <c r="H71" s="12">
+        <v>2980</v>
+      </c>
+      <c r="I71" s="12">
+        <v>10836</v>
+      </c>
+      <c r="J71" s="12">
+        <v>22800</v>
+      </c>
+      <c r="K71" s="12">
+        <v>8658</v>
+      </c>
+      <c r="L71" s="12">
+        <v>2368.5</v>
+      </c>
+      <c r="M71" s="12">
+        <v>6136.8</v>
+      </c>
+      <c r="N71" s="12">
+        <v>5968.5</v>
+      </c>
+      <c r="O71" s="12">
+        <v>6523</v>
+      </c>
+      <c r="P71" s="12">
+        <v>2900</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>1800</v>
+      </c>
+      <c r="R71" s="12">
+        <v>5980</v>
+      </c>
+      <c r="S71" s="12">
+        <v>5165</v>
+      </c>
+      <c r="T71" s="12">
+        <v>21000</v>
+      </c>
+      <c r="U71" s="12">
+        <v>993.5</v>
+      </c>
+      <c r="V71" s="12">
+        <v>7635</v>
+      </c>
+      <c r="W71" s="12">
+        <v>8396</v>
+      </c>
+      <c r="X71" s="12">
+        <v>2365</v>
+      </c>
+      <c r="Y71" s="12">
+        <v>9635</v>
+      </c>
+      <c r="Z71" s="12">
+        <v>4863.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="C72" s="12">
+        <v>4250</v>
+      </c>
+      <c r="D72" s="12">
+        <v>1400</v>
+      </c>
+      <c r="E72" s="12">
+        <v>2836</v>
+      </c>
+      <c r="F72" s="12">
+        <v>8967</v>
+      </c>
+      <c r="G72" s="12">
+        <v>2500</v>
+      </c>
+      <c r="H72" s="12">
+        <v>995</v>
+      </c>
+      <c r="I72" s="12">
+        <v>992</v>
+      </c>
+      <c r="J72" s="12">
+        <v>998</v>
+      </c>
+      <c r="K72" s="12">
+        <v>997.6</v>
+      </c>
+      <c r="L72" s="12">
+        <v>986.5</v>
+      </c>
+      <c r="M72" s="12">
+        <v>835</v>
+      </c>
+      <c r="N72" s="12">
+        <v>1486</v>
+      </c>
+      <c r="O72" s="12">
+        <v>683.6</v>
+      </c>
+      <c r="P72" s="12">
+        <v>12865</v>
+      </c>
+      <c r="Q72" s="12">
+        <v>3400</v>
+      </c>
+      <c r="R72" s="12">
+        <v>13500</v>
+      </c>
+      <c r="S72" s="12">
+        <v>1500</v>
+      </c>
+      <c r="T72" s="12">
+        <v>8500</v>
+      </c>
+      <c r="U72" s="12">
+        <v>380</v>
+      </c>
+      <c r="V72" s="12">
+        <v>5500</v>
+      </c>
+      <c r="W72" s="12">
+        <v>660</v>
+      </c>
+      <c r="X72" s="12">
+        <v>1700</v>
+      </c>
+      <c r="Y72" s="12">
+        <v>999</v>
+      </c>
+      <c r="Z72" s="12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="C73" s="12">
+        <v>786</v>
+      </c>
+      <c r="D73" s="12">
+        <v>1320</v>
+      </c>
+      <c r="E73" s="12">
+        <v>1052</v>
+      </c>
+      <c r="F73" s="12">
+        <v>1800</v>
+      </c>
+      <c r="G73" s="12">
+        <v>813.5</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+    </row>
+    <row r="78" spans="1:26" s="153" customFormat="1"/>
+    <row r="79" spans="1:26" s="153" customFormat="1"/>
+    <row r="82" spans="3:3">
+      <c r="C82"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>